--- a/excel/TaskProgressReport/Team_Task_Progress_System_Enhanced.xlsx
+++ b/excel/TaskProgressReport/Team_Task_Progress_System_Enhanced.xlsx
@@ -15,6 +15,8 @@
   </sheets>
   <definedNames>
     <definedName name="impact_list">lists!$C$1:$C$3</definedName>
+    <definedName name="owner_list">lists!$E$1:$E$10</definedName>
+    <definedName name="resolver_list">lists!$F$1:$F$10</definedName>
     <definedName name="solve_status_list">lists!$D$1:$D$3</definedName>
     <definedName name="status_list">lists!$A$1:$A$5</definedName>
     <definedName name="yesno_list">lists!$B$1:$B$2</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>Task ID</t>
   </si>
@@ -144,6 +146,36 @@
   </si>
   <si>
     <t>Resolved</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>Iris</t>
+  </si>
+  <si>
+    <t>Jack</t>
   </si>
   <si>
     <t>Instructions:</t>
@@ -594,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <f>IF(I2="Completed",0, IF(TODAY()&gt;F2, TODAY()-F2, 0))</f>
+        <f>IF(I2="Completed","", IF(OR(F2="", F2=0), "", IF(TODAY()&gt;F2, TODAY()-F2, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -604,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <f>IF(I3="Completed",0, IF(TODAY()&gt;F3, TODAY()-F3, 0))</f>
+        <f>IF(I3="Completed","", IF(OR(F3="", F3=0), "", IF(TODAY()&gt;F3, TODAY()-F3, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -614,7 +646,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <f>IF(I4="Completed",0, IF(TODAY()&gt;F4, TODAY()-F4, 0))</f>
+        <f>IF(I4="Completed","", IF(OR(F4="", F4=0), "", IF(TODAY()&gt;F4, TODAY()-F4, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -624,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <f>IF(I5="Completed",0, IF(TODAY()&gt;F5, TODAY()-F5, 0))</f>
+        <f>IF(I5="Completed","", IF(OR(F5="", F5=0), "", IF(TODAY()&gt;F5, TODAY()-F5, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -634,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <f>IF(I6="Completed",0, IF(TODAY()&gt;F6, TODAY()-F6, 0))</f>
+        <f>IF(I6="Completed","", IF(OR(F6="", F6=0), "", IF(TODAY()&gt;F6, TODAY()-F6, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -644,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <f>IF(I7="Completed",0, IF(TODAY()&gt;F7, TODAY()-F7, 0))</f>
+        <f>IF(I7="Completed","", IF(OR(F7="", F7=0), "", IF(TODAY()&gt;F7, TODAY()-F7, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -654,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <f>IF(I8="Completed",0, IF(TODAY()&gt;F8, TODAY()-F8, 0))</f>
+        <f>IF(I8="Completed","", IF(OR(F8="", F8=0), "", IF(TODAY()&gt;F8, TODAY()-F8, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -664,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <f>IF(I9="Completed",0, IF(TODAY()&gt;F9, TODAY()-F9, 0))</f>
+        <f>IF(I9="Completed","", IF(OR(F9="", F9=0), "", IF(TODAY()&gt;F9, TODAY()-F9, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -674,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <f>IF(I10="Completed",0, IF(TODAY()&gt;F10, TODAY()-F10, 0))</f>
+        <f>IF(I10="Completed","", IF(OR(F10="", F10=0), "", IF(TODAY()&gt;F10, TODAY()-F10, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -684,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <f>IF(I11="Completed",0, IF(TODAY()&gt;F11, TODAY()-F11, 0))</f>
+        <f>IF(I11="Completed","", IF(OR(F11="", F11=0), "", IF(TODAY()&gt;F11, TODAY()-F11, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -694,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <f>IF(I12="Completed",0, IF(TODAY()&gt;F12, TODAY()-F12, 0))</f>
+        <f>IF(I12="Completed","", IF(OR(F12="", F12=0), "", IF(TODAY()&gt;F12, TODAY()-F12, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -704,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <f>IF(I13="Completed",0, IF(TODAY()&gt;F13, TODAY()-F13, 0))</f>
+        <f>IF(I13="Completed","", IF(OR(F13="", F13=0), "", IF(TODAY()&gt;F13, TODAY()-F13, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -714,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <f>IF(I14="Completed",0, IF(TODAY()&gt;F14, TODAY()-F14, 0))</f>
+        <f>IF(I14="Completed","", IF(OR(F14="", F14=0), "", IF(TODAY()&gt;F14, TODAY()-F14, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -724,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <f>IF(I15="Completed",0, IF(TODAY()&gt;F15, TODAY()-F15, 0))</f>
+        <f>IF(I15="Completed","", IF(OR(F15="", F15=0), "", IF(TODAY()&gt;F15, TODAY()-F15, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -734,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <f>IF(I16="Completed",0, IF(TODAY()&gt;F16, TODAY()-F16, 0))</f>
+        <f>IF(I16="Completed","", IF(OR(F16="", F16=0), "", IF(TODAY()&gt;F16, TODAY()-F16, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -744,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <f>IF(I17="Completed",0, IF(TODAY()&gt;F17, TODAY()-F17, 0))</f>
+        <f>IF(I17="Completed","", IF(OR(F17="", F17=0), "", IF(TODAY()&gt;F17, TODAY()-F17, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -754,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <f>IF(I18="Completed",0, IF(TODAY()&gt;F18, TODAY()-F18, 0))</f>
+        <f>IF(I18="Completed","", IF(OR(F18="", F18=0), "", IF(TODAY()&gt;F18, TODAY()-F18, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -764,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <f>IF(I19="Completed",0, IF(TODAY()&gt;F19, TODAY()-F19, 0))</f>
+        <f>IF(I19="Completed","", IF(OR(F19="", F19=0), "", IF(TODAY()&gt;F19, TODAY()-F19, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -774,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <f>IF(I20="Completed",0, IF(TODAY()&gt;F20, TODAY()-F20, 0))</f>
+        <f>IF(I20="Completed","", IF(OR(F20="", F20=0), "", IF(TODAY()&gt;F20, TODAY()-F20, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -784,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <f>IF(I21="Completed",0, IF(TODAY()&gt;F21, TODAY()-F21, 0))</f>
+        <f>IF(I21="Completed","", IF(OR(F21="", F21=0), "", IF(TODAY()&gt;F21, TODAY()-F21, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -794,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <f>IF(I22="Completed",0, IF(TODAY()&gt;F22, TODAY()-F22, 0))</f>
+        <f>IF(I22="Completed","", IF(OR(F22="", F22=0), "", IF(TODAY()&gt;F22, TODAY()-F22, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -804,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <f>IF(I23="Completed",0, IF(TODAY()&gt;F23, TODAY()-F23, 0))</f>
+        <f>IF(I23="Completed","", IF(OR(F23="", F23=0), "", IF(TODAY()&gt;F23, TODAY()-F23, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -814,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <f>IF(I24="Completed",0, IF(TODAY()&gt;F24, TODAY()-F24, 0))</f>
+        <f>IF(I24="Completed","", IF(OR(F24="", F24=0), "", IF(TODAY()&gt;F24, TODAY()-F24, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -824,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <f>IF(I25="Completed",0, IF(TODAY()&gt;F25, TODAY()-F25, 0))</f>
+        <f>IF(I25="Completed","", IF(OR(F25="", F25=0), "", IF(TODAY()&gt;F25, TODAY()-F25, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -834,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <f>IF(I26="Completed",0, IF(TODAY()&gt;F26, TODAY()-F26, 0))</f>
+        <f>IF(I26="Completed","", IF(OR(F26="", F26=0), "", IF(TODAY()&gt;F26, TODAY()-F26, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -844,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <f>IF(I27="Completed",0, IF(TODAY()&gt;F27, TODAY()-F27, 0))</f>
+        <f>IF(I27="Completed","", IF(OR(F27="", F27=0), "", IF(TODAY()&gt;F27, TODAY()-F27, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -854,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <f>IF(I28="Completed",0, IF(TODAY()&gt;F28, TODAY()-F28, 0))</f>
+        <f>IF(I28="Completed","", IF(OR(F28="", F28=0), "", IF(TODAY()&gt;F28, TODAY()-F28, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -864,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <f>IF(I29="Completed",0, IF(TODAY()&gt;F29, TODAY()-F29, 0))</f>
+        <f>IF(I29="Completed","", IF(OR(F29="", F29=0), "", IF(TODAY()&gt;F29, TODAY()-F29, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -874,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <f>IF(I30="Completed",0, IF(TODAY()&gt;F30, TODAY()-F30, 0))</f>
+        <f>IF(I30="Completed","", IF(OR(F30="", F30=0), "", IF(TODAY()&gt;F30, TODAY()-F30, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -884,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <f>IF(I31="Completed",0, IF(TODAY()&gt;F31, TODAY()-F31, 0))</f>
+        <f>IF(I31="Completed","", IF(OR(F31="", F31=0), "", IF(TODAY()&gt;F31, TODAY()-F31, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -894,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <f>IF(I32="Completed",0, IF(TODAY()&gt;F32, TODAY()-F32, 0))</f>
+        <f>IF(I32="Completed","", IF(OR(F32="", F32=0), "", IF(TODAY()&gt;F32, TODAY()-F32, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -904,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <f>IF(I33="Completed",0, IF(TODAY()&gt;F33, TODAY()-F33, 0))</f>
+        <f>IF(I33="Completed","", IF(OR(F33="", F33=0), "", IF(TODAY()&gt;F33, TODAY()-F33, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -914,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <f>IF(I34="Completed",0, IF(TODAY()&gt;F34, TODAY()-F34, 0))</f>
+        <f>IF(I34="Completed","", IF(OR(F34="", F34=0), "", IF(TODAY()&gt;F34, TODAY()-F34, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -924,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <f>IF(I35="Completed",0, IF(TODAY()&gt;F35, TODAY()-F35, 0))</f>
+        <f>IF(I35="Completed","", IF(OR(F35="", F35=0), "", IF(TODAY()&gt;F35, TODAY()-F35, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -934,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <f>IF(I36="Completed",0, IF(TODAY()&gt;F36, TODAY()-F36, 0))</f>
+        <f>IF(I36="Completed","", IF(OR(F36="", F36=0), "", IF(TODAY()&gt;F36, TODAY()-F36, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -944,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <f>IF(I37="Completed",0, IF(TODAY()&gt;F37, TODAY()-F37, 0))</f>
+        <f>IF(I37="Completed","", IF(OR(F37="", F37=0), "", IF(TODAY()&gt;F37, TODAY()-F37, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -954,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <f>IF(I38="Completed",0, IF(TODAY()&gt;F38, TODAY()-F38, 0))</f>
+        <f>IF(I38="Completed","", IF(OR(F38="", F38=0), "", IF(TODAY()&gt;F38, TODAY()-F38, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -964,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <f>IF(I39="Completed",0, IF(TODAY()&gt;F39, TODAY()-F39, 0))</f>
+        <f>IF(I39="Completed","", IF(OR(F39="", F39=0), "", IF(TODAY()&gt;F39, TODAY()-F39, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -974,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <f>IF(I40="Completed",0, IF(TODAY()&gt;F40, TODAY()-F40, 0))</f>
+        <f>IF(I40="Completed","", IF(OR(F40="", F40=0), "", IF(TODAY()&gt;F40, TODAY()-F40, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -984,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <f>IF(I41="Completed",0, IF(TODAY()&gt;F41, TODAY()-F41, 0))</f>
+        <f>IF(I41="Completed","", IF(OR(F41="", F41=0), "", IF(TODAY()&gt;F41, TODAY()-F41, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -994,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="N42">
-        <f>IF(I42="Completed",0, IF(TODAY()&gt;F42, TODAY()-F42, 0))</f>
+        <f>IF(I42="Completed","", IF(OR(F42="", F42=0), "", IF(TODAY()&gt;F42, TODAY()-F42, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1004,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <f>IF(I43="Completed",0, IF(TODAY()&gt;F43, TODAY()-F43, 0))</f>
+        <f>IF(I43="Completed","", IF(OR(F43="", F43=0), "", IF(TODAY()&gt;F43, TODAY()-F43, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1014,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <f>IF(I44="Completed",0, IF(TODAY()&gt;F44, TODAY()-F44, 0))</f>
+        <f>IF(I44="Completed","", IF(OR(F44="", F44=0), "", IF(TODAY()&gt;F44, TODAY()-F44, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1024,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="N45">
-        <f>IF(I45="Completed",0, IF(TODAY()&gt;F45, TODAY()-F45, 0))</f>
+        <f>IF(I45="Completed","", IF(OR(F45="", F45=0), "", IF(TODAY()&gt;F45, TODAY()-F45, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1034,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <f>IF(I46="Completed",0, IF(TODAY()&gt;F46, TODAY()-F46, 0))</f>
+        <f>IF(I46="Completed","", IF(OR(F46="", F46=0), "", IF(TODAY()&gt;F46, TODAY()-F46, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1044,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <f>IF(I47="Completed",0, IF(TODAY()&gt;F47, TODAY()-F47, 0))</f>
+        <f>IF(I47="Completed","", IF(OR(F47="", F47=0), "", IF(TODAY()&gt;F47, TODAY()-F47, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1054,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <f>IF(I48="Completed",0, IF(TODAY()&gt;F48, TODAY()-F48, 0))</f>
+        <f>IF(I48="Completed","", IF(OR(F48="", F48=0), "", IF(TODAY()&gt;F48, TODAY()-F48, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1064,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="N49">
-        <f>IF(I49="Completed",0, IF(TODAY()&gt;F49, TODAY()-F49, 0))</f>
+        <f>IF(I49="Completed","", IF(OR(F49="", F49=0), "", IF(TODAY()&gt;F49, TODAY()-F49, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1074,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="N50">
-        <f>IF(I50="Completed",0, IF(TODAY()&gt;F50, TODAY()-F50, 0))</f>
+        <f>IF(I50="Completed","", IF(OR(F50="", F50=0), "", IF(TODAY()&gt;F50, TODAY()-F50, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1084,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <f>IF(I51="Completed",0, IF(TODAY()&gt;F51, TODAY()-F51, 0))</f>
+        <f>IF(I51="Completed","", IF(OR(F51="", F51=0), "", IF(TODAY()&gt;F51, TODAY()-F51, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1094,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <f>IF(I52="Completed",0, IF(TODAY()&gt;F52, TODAY()-F52, 0))</f>
+        <f>IF(I52="Completed","", IF(OR(F52="", F52=0), "", IF(TODAY()&gt;F52, TODAY()-F52, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1104,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="N53">
-        <f>IF(I53="Completed",0, IF(TODAY()&gt;F53, TODAY()-F53, 0))</f>
+        <f>IF(I53="Completed","", IF(OR(F53="", F53=0), "", IF(TODAY()&gt;F53, TODAY()-F53, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1114,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <f>IF(I54="Completed",0, IF(TODAY()&gt;F54, TODAY()-F54, 0))</f>
+        <f>IF(I54="Completed","", IF(OR(F54="", F54=0), "", IF(TODAY()&gt;F54, TODAY()-F54, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1124,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="N55">
-        <f>IF(I55="Completed",0, IF(TODAY()&gt;F55, TODAY()-F55, 0))</f>
+        <f>IF(I55="Completed","", IF(OR(F55="", F55=0), "", IF(TODAY()&gt;F55, TODAY()-F55, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1134,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="N56">
-        <f>IF(I56="Completed",0, IF(TODAY()&gt;F56, TODAY()-F56, 0))</f>
+        <f>IF(I56="Completed","", IF(OR(F56="", F56=0), "", IF(TODAY()&gt;F56, TODAY()-F56, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1144,7 +1176,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <f>IF(I57="Completed",0, IF(TODAY()&gt;F57, TODAY()-F57, 0))</f>
+        <f>IF(I57="Completed","", IF(OR(F57="", F57=0), "", IF(TODAY()&gt;F57, TODAY()-F57, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1154,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <f>IF(I58="Completed",0, IF(TODAY()&gt;F58, TODAY()-F58, 0))</f>
+        <f>IF(I58="Completed","", IF(OR(F58="", F58=0), "", IF(TODAY()&gt;F58, TODAY()-F58, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1164,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="N59">
-        <f>IF(I59="Completed",0, IF(TODAY()&gt;F59, TODAY()-F59, 0))</f>
+        <f>IF(I59="Completed","", IF(OR(F59="", F59=0), "", IF(TODAY()&gt;F59, TODAY()-F59, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1174,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <f>IF(I60="Completed",0, IF(TODAY()&gt;F60, TODAY()-F60, 0))</f>
+        <f>IF(I60="Completed","", IF(OR(F60="", F60=0), "", IF(TODAY()&gt;F60, TODAY()-F60, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1184,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="N61">
-        <f>IF(I61="Completed",0, IF(TODAY()&gt;F61, TODAY()-F61, 0))</f>
+        <f>IF(I61="Completed","", IF(OR(F61="", F61=0), "", IF(TODAY()&gt;F61, TODAY()-F61, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1194,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="N62">
-        <f>IF(I62="Completed",0, IF(TODAY()&gt;F62, TODAY()-F62, 0))</f>
+        <f>IF(I62="Completed","", IF(OR(F62="", F62=0), "", IF(TODAY()&gt;F62, TODAY()-F62, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1204,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <f>IF(I63="Completed",0, IF(TODAY()&gt;F63, TODAY()-F63, 0))</f>
+        <f>IF(I63="Completed","", IF(OR(F63="", F63=0), "", IF(TODAY()&gt;F63, TODAY()-F63, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1214,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <f>IF(I64="Completed",0, IF(TODAY()&gt;F64, TODAY()-F64, 0))</f>
+        <f>IF(I64="Completed","", IF(OR(F64="", F64=0), "", IF(TODAY()&gt;F64, TODAY()-F64, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1224,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N65">
-        <f>IF(I65="Completed",0, IF(TODAY()&gt;F65, TODAY()-F65, 0))</f>
+        <f>IF(I65="Completed","", IF(OR(F65="", F65=0), "", IF(TODAY()&gt;F65, TODAY()-F65, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1234,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <f>IF(I66="Completed",0, IF(TODAY()&gt;F66, TODAY()-F66, 0))</f>
+        <f>IF(I66="Completed","", IF(OR(F66="", F66=0), "", IF(TODAY()&gt;F66, TODAY()-F66, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1244,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <f>IF(I67="Completed",0, IF(TODAY()&gt;F67, TODAY()-F67, 0))</f>
+        <f>IF(I67="Completed","", IF(OR(F67="", F67=0), "", IF(TODAY()&gt;F67, TODAY()-F67, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1254,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <f>IF(I68="Completed",0, IF(TODAY()&gt;F68, TODAY()-F68, 0))</f>
+        <f>IF(I68="Completed","", IF(OR(F68="", F68=0), "", IF(TODAY()&gt;F68, TODAY()-F68, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1264,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="N69">
-        <f>IF(I69="Completed",0, IF(TODAY()&gt;F69, TODAY()-F69, 0))</f>
+        <f>IF(I69="Completed","", IF(OR(F69="", F69=0), "", IF(TODAY()&gt;F69, TODAY()-F69, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1274,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <f>IF(I70="Completed",0, IF(TODAY()&gt;F70, TODAY()-F70, 0))</f>
+        <f>IF(I70="Completed","", IF(OR(F70="", F70=0), "", IF(TODAY()&gt;F70, TODAY()-F70, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1284,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="N71">
-        <f>IF(I71="Completed",0, IF(TODAY()&gt;F71, TODAY()-F71, 0))</f>
+        <f>IF(I71="Completed","", IF(OR(F71="", F71=0), "", IF(TODAY()&gt;F71, TODAY()-F71, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1294,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <f>IF(I72="Completed",0, IF(TODAY()&gt;F72, TODAY()-F72, 0))</f>
+        <f>IF(I72="Completed","", IF(OR(F72="", F72=0), "", IF(TODAY()&gt;F72, TODAY()-F72, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1304,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="N73">
-        <f>IF(I73="Completed",0, IF(TODAY()&gt;F73, TODAY()-F73, 0))</f>
+        <f>IF(I73="Completed","", IF(OR(F73="", F73=0), "", IF(TODAY()&gt;F73, TODAY()-F73, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1314,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <f>IF(I74="Completed",0, IF(TODAY()&gt;F74, TODAY()-F74, 0))</f>
+        <f>IF(I74="Completed","", IF(OR(F74="", F74=0), "", IF(TODAY()&gt;F74, TODAY()-F74, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1324,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="N75">
-        <f>IF(I75="Completed",0, IF(TODAY()&gt;F75, TODAY()-F75, 0))</f>
+        <f>IF(I75="Completed","", IF(OR(F75="", F75=0), "", IF(TODAY()&gt;F75, TODAY()-F75, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1334,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="N76">
-        <f>IF(I76="Completed",0, IF(TODAY()&gt;F76, TODAY()-F76, 0))</f>
+        <f>IF(I76="Completed","", IF(OR(F76="", F76=0), "", IF(TODAY()&gt;F76, TODAY()-F76, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1344,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="N77">
-        <f>IF(I77="Completed",0, IF(TODAY()&gt;F77, TODAY()-F77, 0))</f>
+        <f>IF(I77="Completed","", IF(OR(F77="", F77=0), "", IF(TODAY()&gt;F77, TODAY()-F77, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1354,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="N78">
-        <f>IF(I78="Completed",0, IF(TODAY()&gt;F78, TODAY()-F78, 0))</f>
+        <f>IF(I78="Completed","", IF(OR(F78="", F78=0), "", IF(TODAY()&gt;F78, TODAY()-F78, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1364,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <f>IF(I79="Completed",0, IF(TODAY()&gt;F79, TODAY()-F79, 0))</f>
+        <f>IF(I79="Completed","", IF(OR(F79="", F79=0), "", IF(TODAY()&gt;F79, TODAY()-F79, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1374,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="N80">
-        <f>IF(I80="Completed",0, IF(TODAY()&gt;F80, TODAY()-F80, 0))</f>
+        <f>IF(I80="Completed","", IF(OR(F80="", F80=0), "", IF(TODAY()&gt;F80, TODAY()-F80, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1384,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="N81">
-        <f>IF(I81="Completed",0, IF(TODAY()&gt;F81, TODAY()-F81, 0))</f>
+        <f>IF(I81="Completed","", IF(OR(F81="", F81=0), "", IF(TODAY()&gt;F81, TODAY()-F81, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1394,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="N82">
-        <f>IF(I82="Completed",0, IF(TODAY()&gt;F82, TODAY()-F82, 0))</f>
+        <f>IF(I82="Completed","", IF(OR(F82="", F82=0), "", IF(TODAY()&gt;F82, TODAY()-F82, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1404,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="N83">
-        <f>IF(I83="Completed",0, IF(TODAY()&gt;F83, TODAY()-F83, 0))</f>
+        <f>IF(I83="Completed","", IF(OR(F83="", F83=0), "", IF(TODAY()&gt;F83, TODAY()-F83, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1414,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <f>IF(I84="Completed",0, IF(TODAY()&gt;F84, TODAY()-F84, 0))</f>
+        <f>IF(I84="Completed","", IF(OR(F84="", F84=0), "", IF(TODAY()&gt;F84, TODAY()-F84, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1424,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="N85">
-        <f>IF(I85="Completed",0, IF(TODAY()&gt;F85, TODAY()-F85, 0))</f>
+        <f>IF(I85="Completed","", IF(OR(F85="", F85=0), "", IF(TODAY()&gt;F85, TODAY()-F85, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1434,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="N86">
-        <f>IF(I86="Completed",0, IF(TODAY()&gt;F86, TODAY()-F86, 0))</f>
+        <f>IF(I86="Completed","", IF(OR(F86="", F86=0), "", IF(TODAY()&gt;F86, TODAY()-F86, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1444,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="N87">
-        <f>IF(I87="Completed",0, IF(TODAY()&gt;F87, TODAY()-F87, 0))</f>
+        <f>IF(I87="Completed","", IF(OR(F87="", F87=0), "", IF(TODAY()&gt;F87, TODAY()-F87, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1454,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <f>IF(I88="Completed",0, IF(TODAY()&gt;F88, TODAY()-F88, 0))</f>
+        <f>IF(I88="Completed","", IF(OR(F88="", F88=0), "", IF(TODAY()&gt;F88, TODAY()-F88, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1464,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="N89">
-        <f>IF(I89="Completed",0, IF(TODAY()&gt;F89, TODAY()-F89, 0))</f>
+        <f>IF(I89="Completed","", IF(OR(F89="", F89=0), "", IF(TODAY()&gt;F89, TODAY()-F89, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1474,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="N90">
-        <f>IF(I90="Completed",0, IF(TODAY()&gt;F90, TODAY()-F90, 0))</f>
+        <f>IF(I90="Completed","", IF(OR(F90="", F90=0), "", IF(TODAY()&gt;F90, TODAY()-F90, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1484,7 +1516,7 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <f>IF(I91="Completed",0, IF(TODAY()&gt;F91, TODAY()-F91, 0))</f>
+        <f>IF(I91="Completed","", IF(OR(F91="", F91=0), "", IF(TODAY()&gt;F91, TODAY()-F91, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1494,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="N92">
-        <f>IF(I92="Completed",0, IF(TODAY()&gt;F92, TODAY()-F92, 0))</f>
+        <f>IF(I92="Completed","", IF(OR(F92="", F92=0), "", IF(TODAY()&gt;F92, TODAY()-F92, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1504,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="N93">
-        <f>IF(I93="Completed",0, IF(TODAY()&gt;F93, TODAY()-F93, 0))</f>
+        <f>IF(I93="Completed","", IF(OR(F93="", F93=0), "", IF(TODAY()&gt;F93, TODAY()-F93, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1514,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="N94">
-        <f>IF(I94="Completed",0, IF(TODAY()&gt;F94, TODAY()-F94, 0))</f>
+        <f>IF(I94="Completed","", IF(OR(F94="", F94=0), "", IF(TODAY()&gt;F94, TODAY()-F94, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1524,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="N95">
-        <f>IF(I95="Completed",0, IF(TODAY()&gt;F95, TODAY()-F95, 0))</f>
+        <f>IF(I95="Completed","", IF(OR(F95="", F95=0), "", IF(TODAY()&gt;F95, TODAY()-F95, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1534,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="N96">
-        <f>IF(I96="Completed",0, IF(TODAY()&gt;F96, TODAY()-F96, 0))</f>
+        <f>IF(I96="Completed","", IF(OR(F96="", F96=0), "", IF(TODAY()&gt;F96, TODAY()-F96, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1544,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="N97">
-        <f>IF(I97="Completed",0, IF(TODAY()&gt;F97, TODAY()-F97, 0))</f>
+        <f>IF(I97="Completed","", IF(OR(F97="", F97=0), "", IF(TODAY()&gt;F97, TODAY()-F97, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1554,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <f>IF(I98="Completed",0, IF(TODAY()&gt;F98, TODAY()-F98, 0))</f>
+        <f>IF(I98="Completed","", IF(OR(F98="", F98=0), "", IF(TODAY()&gt;F98, TODAY()-F98, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1564,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="N99">
-        <f>IF(I99="Completed",0, IF(TODAY()&gt;F99, TODAY()-F99, 0))</f>
+        <f>IF(I99="Completed","", IF(OR(F99="", F99=0), "", IF(TODAY()&gt;F99, TODAY()-F99, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1574,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="N100">
-        <f>IF(I100="Completed",0, IF(TODAY()&gt;F100, TODAY()-F100, 0))</f>
+        <f>IF(I100="Completed","", IF(OR(F100="", F100=0), "", IF(TODAY()&gt;F100, TODAY()-F100, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1584,7 +1616,7 @@
         <v>0</v>
       </c>
       <c r="N101">
-        <f>IF(I101="Completed",0, IF(TODAY()&gt;F101, TODAY()-F101, 0))</f>
+        <f>IF(I101="Completed","", IF(OR(F101="", F101=0), "", IF(TODAY()&gt;F101, TODAY()-F101, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1594,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="N102">
-        <f>IF(I102="Completed",0, IF(TODAY()&gt;F102, TODAY()-F102, 0))</f>
+        <f>IF(I102="Completed","", IF(OR(F102="", F102=0), "", IF(TODAY()&gt;F102, TODAY()-F102, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1604,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="N103">
-        <f>IF(I103="Completed",0, IF(TODAY()&gt;F103, TODAY()-F103, 0))</f>
+        <f>IF(I103="Completed","", IF(OR(F103="", F103=0), "", IF(TODAY()&gt;F103, TODAY()-F103, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1614,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="N104">
-        <f>IF(I104="Completed",0, IF(TODAY()&gt;F104, TODAY()-F104, 0))</f>
+        <f>IF(I104="Completed","", IF(OR(F104="", F104=0), "", IF(TODAY()&gt;F104, TODAY()-F104, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1624,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="N105">
-        <f>IF(I105="Completed",0, IF(TODAY()&gt;F105, TODAY()-F105, 0))</f>
+        <f>IF(I105="Completed","", IF(OR(F105="", F105=0), "", IF(TODAY()&gt;F105, TODAY()-F105, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1634,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="N106">
-        <f>IF(I106="Completed",0, IF(TODAY()&gt;F106, TODAY()-F106, 0))</f>
+        <f>IF(I106="Completed","", IF(OR(F106="", F106=0), "", IF(TODAY()&gt;F106, TODAY()-F106, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1644,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="N107">
-        <f>IF(I107="Completed",0, IF(TODAY()&gt;F107, TODAY()-F107, 0))</f>
+        <f>IF(I107="Completed","", IF(OR(F107="", F107=0), "", IF(TODAY()&gt;F107, TODAY()-F107, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1654,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="N108">
-        <f>IF(I108="Completed",0, IF(TODAY()&gt;F108, TODAY()-F108, 0))</f>
+        <f>IF(I108="Completed","", IF(OR(F108="", F108=0), "", IF(TODAY()&gt;F108, TODAY()-F108, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1664,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="N109">
-        <f>IF(I109="Completed",0, IF(TODAY()&gt;F109, TODAY()-F109, 0))</f>
+        <f>IF(I109="Completed","", IF(OR(F109="", F109=0), "", IF(TODAY()&gt;F109, TODAY()-F109, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1674,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="N110">
-        <f>IF(I110="Completed",0, IF(TODAY()&gt;F110, TODAY()-F110, 0))</f>
+        <f>IF(I110="Completed","", IF(OR(F110="", F110=0), "", IF(TODAY()&gt;F110, TODAY()-F110, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1684,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="N111">
-        <f>IF(I111="Completed",0, IF(TODAY()&gt;F111, TODAY()-F111, 0))</f>
+        <f>IF(I111="Completed","", IF(OR(F111="", F111=0), "", IF(TODAY()&gt;F111, TODAY()-F111, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1694,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="N112">
-        <f>IF(I112="Completed",0, IF(TODAY()&gt;F112, TODAY()-F112, 0))</f>
+        <f>IF(I112="Completed","", IF(OR(F112="", F112=0), "", IF(TODAY()&gt;F112, TODAY()-F112, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1704,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="N113">
-        <f>IF(I113="Completed",0, IF(TODAY()&gt;F113, TODAY()-F113, 0))</f>
+        <f>IF(I113="Completed","", IF(OR(F113="", F113=0), "", IF(TODAY()&gt;F113, TODAY()-F113, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1714,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="N114">
-        <f>IF(I114="Completed",0, IF(TODAY()&gt;F114, TODAY()-F114, 0))</f>
+        <f>IF(I114="Completed","", IF(OR(F114="", F114=0), "", IF(TODAY()&gt;F114, TODAY()-F114, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1724,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="N115">
-        <f>IF(I115="Completed",0, IF(TODAY()&gt;F115, TODAY()-F115, 0))</f>
+        <f>IF(I115="Completed","", IF(OR(F115="", F115=0), "", IF(TODAY()&gt;F115, TODAY()-F115, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1734,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="N116">
-        <f>IF(I116="Completed",0, IF(TODAY()&gt;F116, TODAY()-F116, 0))</f>
+        <f>IF(I116="Completed","", IF(OR(F116="", F116=0), "", IF(TODAY()&gt;F116, TODAY()-F116, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1744,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="N117">
-        <f>IF(I117="Completed",0, IF(TODAY()&gt;F117, TODAY()-F117, 0))</f>
+        <f>IF(I117="Completed","", IF(OR(F117="", F117=0), "", IF(TODAY()&gt;F117, TODAY()-F117, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1754,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="N118">
-        <f>IF(I118="Completed",0, IF(TODAY()&gt;F118, TODAY()-F118, 0))</f>
+        <f>IF(I118="Completed","", IF(OR(F118="", F118=0), "", IF(TODAY()&gt;F118, TODAY()-F118, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1764,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="N119">
-        <f>IF(I119="Completed",0, IF(TODAY()&gt;F119, TODAY()-F119, 0))</f>
+        <f>IF(I119="Completed","", IF(OR(F119="", F119=0), "", IF(TODAY()&gt;F119, TODAY()-F119, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1774,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="N120">
-        <f>IF(I120="Completed",0, IF(TODAY()&gt;F120, TODAY()-F120, 0))</f>
+        <f>IF(I120="Completed","", IF(OR(F120="", F120=0), "", IF(TODAY()&gt;F120, TODAY()-F120, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1784,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="N121">
-        <f>IF(I121="Completed",0, IF(TODAY()&gt;F121, TODAY()-F121, 0))</f>
+        <f>IF(I121="Completed","", IF(OR(F121="", F121=0), "", IF(TODAY()&gt;F121, TODAY()-F121, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1794,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="N122">
-        <f>IF(I122="Completed",0, IF(TODAY()&gt;F122, TODAY()-F122, 0))</f>
+        <f>IF(I122="Completed","", IF(OR(F122="", F122=0), "", IF(TODAY()&gt;F122, TODAY()-F122, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1804,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="N123">
-        <f>IF(I123="Completed",0, IF(TODAY()&gt;F123, TODAY()-F123, 0))</f>
+        <f>IF(I123="Completed","", IF(OR(F123="", F123=0), "", IF(TODAY()&gt;F123, TODAY()-F123, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1814,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="N124">
-        <f>IF(I124="Completed",0, IF(TODAY()&gt;F124, TODAY()-F124, 0))</f>
+        <f>IF(I124="Completed","", IF(OR(F124="", F124=0), "", IF(TODAY()&gt;F124, TODAY()-F124, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1824,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="N125">
-        <f>IF(I125="Completed",0, IF(TODAY()&gt;F125, TODAY()-F125, 0))</f>
+        <f>IF(I125="Completed","", IF(OR(F125="", F125=0), "", IF(TODAY()&gt;F125, TODAY()-F125, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1834,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="N126">
-        <f>IF(I126="Completed",0, IF(TODAY()&gt;F126, TODAY()-F126, 0))</f>
+        <f>IF(I126="Completed","", IF(OR(F126="", F126=0), "", IF(TODAY()&gt;F126, TODAY()-F126, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1844,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="N127">
-        <f>IF(I127="Completed",0, IF(TODAY()&gt;F127, TODAY()-F127, 0))</f>
+        <f>IF(I127="Completed","", IF(OR(F127="", F127=0), "", IF(TODAY()&gt;F127, TODAY()-F127, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1854,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="N128">
-        <f>IF(I128="Completed",0, IF(TODAY()&gt;F128, TODAY()-F128, 0))</f>
+        <f>IF(I128="Completed","", IF(OR(F128="", F128=0), "", IF(TODAY()&gt;F128, TODAY()-F128, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1864,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="N129">
-        <f>IF(I129="Completed",0, IF(TODAY()&gt;F129, TODAY()-F129, 0))</f>
+        <f>IF(I129="Completed","", IF(OR(F129="", F129=0), "", IF(TODAY()&gt;F129, TODAY()-F129, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1874,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <f>IF(I130="Completed",0, IF(TODAY()&gt;F130, TODAY()-F130, 0))</f>
+        <f>IF(I130="Completed","", IF(OR(F130="", F130=0), "", IF(TODAY()&gt;F130, TODAY()-F130, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1884,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="N131">
-        <f>IF(I131="Completed",0, IF(TODAY()&gt;F131, TODAY()-F131, 0))</f>
+        <f>IF(I131="Completed","", IF(OR(F131="", F131=0), "", IF(TODAY()&gt;F131, TODAY()-F131, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1894,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="N132">
-        <f>IF(I132="Completed",0, IF(TODAY()&gt;F132, TODAY()-F132, 0))</f>
+        <f>IF(I132="Completed","", IF(OR(F132="", F132=0), "", IF(TODAY()&gt;F132, TODAY()-F132, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1904,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="N133">
-        <f>IF(I133="Completed",0, IF(TODAY()&gt;F133, TODAY()-F133, 0))</f>
+        <f>IF(I133="Completed","", IF(OR(F133="", F133=0), "", IF(TODAY()&gt;F133, TODAY()-F133, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1914,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="N134">
-        <f>IF(I134="Completed",0, IF(TODAY()&gt;F134, TODAY()-F134, 0))</f>
+        <f>IF(I134="Completed","", IF(OR(F134="", F134=0), "", IF(TODAY()&gt;F134, TODAY()-F134, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1924,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="N135">
-        <f>IF(I135="Completed",0, IF(TODAY()&gt;F135, TODAY()-F135, 0))</f>
+        <f>IF(I135="Completed","", IF(OR(F135="", F135=0), "", IF(TODAY()&gt;F135, TODAY()-F135, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1934,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="N136">
-        <f>IF(I136="Completed",0, IF(TODAY()&gt;F136, TODAY()-F136, 0))</f>
+        <f>IF(I136="Completed","", IF(OR(F136="", F136=0), "", IF(TODAY()&gt;F136, TODAY()-F136, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1944,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="N137">
-        <f>IF(I137="Completed",0, IF(TODAY()&gt;F137, TODAY()-F137, 0))</f>
+        <f>IF(I137="Completed","", IF(OR(F137="", F137=0), "", IF(TODAY()&gt;F137, TODAY()-F137, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1954,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="N138">
-        <f>IF(I138="Completed",0, IF(TODAY()&gt;F138, TODAY()-F138, 0))</f>
+        <f>IF(I138="Completed","", IF(OR(F138="", F138=0), "", IF(TODAY()&gt;F138, TODAY()-F138, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1964,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="N139">
-        <f>IF(I139="Completed",0, IF(TODAY()&gt;F139, TODAY()-F139, 0))</f>
+        <f>IF(I139="Completed","", IF(OR(F139="", F139=0), "", IF(TODAY()&gt;F139, TODAY()-F139, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1974,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="N140">
-        <f>IF(I140="Completed",0, IF(TODAY()&gt;F140, TODAY()-F140, 0))</f>
+        <f>IF(I140="Completed","", IF(OR(F140="", F140=0), "", IF(TODAY()&gt;F140, TODAY()-F140, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1984,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="N141">
-        <f>IF(I141="Completed",0, IF(TODAY()&gt;F141, TODAY()-F141, 0))</f>
+        <f>IF(I141="Completed","", IF(OR(F141="", F141=0), "", IF(TODAY()&gt;F141, TODAY()-F141, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -1994,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="N142">
-        <f>IF(I142="Completed",0, IF(TODAY()&gt;F142, TODAY()-F142, 0))</f>
+        <f>IF(I142="Completed","", IF(OR(F142="", F142=0), "", IF(TODAY()&gt;F142, TODAY()-F142, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2004,7 +2036,7 @@
         <v>0</v>
       </c>
       <c r="N143">
-        <f>IF(I143="Completed",0, IF(TODAY()&gt;F143, TODAY()-F143, 0))</f>
+        <f>IF(I143="Completed","", IF(OR(F143="", F143=0), "", IF(TODAY()&gt;F143, TODAY()-F143, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2014,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="N144">
-        <f>IF(I144="Completed",0, IF(TODAY()&gt;F144, TODAY()-F144, 0))</f>
+        <f>IF(I144="Completed","", IF(OR(F144="", F144=0), "", IF(TODAY()&gt;F144, TODAY()-F144, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2024,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="N145">
-        <f>IF(I145="Completed",0, IF(TODAY()&gt;F145, TODAY()-F145, 0))</f>
+        <f>IF(I145="Completed","", IF(OR(F145="", F145=0), "", IF(TODAY()&gt;F145, TODAY()-F145, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2034,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="N146">
-        <f>IF(I146="Completed",0, IF(TODAY()&gt;F146, TODAY()-F146, 0))</f>
+        <f>IF(I146="Completed","", IF(OR(F146="", F146=0), "", IF(TODAY()&gt;F146, TODAY()-F146, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2044,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="N147">
-        <f>IF(I147="Completed",0, IF(TODAY()&gt;F147, TODAY()-F147, 0))</f>
+        <f>IF(I147="Completed","", IF(OR(F147="", F147=0), "", IF(TODAY()&gt;F147, TODAY()-F147, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2054,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="N148">
-        <f>IF(I148="Completed",0, IF(TODAY()&gt;F148, TODAY()-F148, 0))</f>
+        <f>IF(I148="Completed","", IF(OR(F148="", F148=0), "", IF(TODAY()&gt;F148, TODAY()-F148, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2064,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="N149">
-        <f>IF(I149="Completed",0, IF(TODAY()&gt;F149, TODAY()-F149, 0))</f>
+        <f>IF(I149="Completed","", IF(OR(F149="", F149=0), "", IF(TODAY()&gt;F149, TODAY()-F149, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2074,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <f>IF(I150="Completed",0, IF(TODAY()&gt;F150, TODAY()-F150, 0))</f>
+        <f>IF(I150="Completed","", IF(OR(F150="", F150=0), "", IF(TODAY()&gt;F150, TODAY()-F150, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2084,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="N151">
-        <f>IF(I151="Completed",0, IF(TODAY()&gt;F151, TODAY()-F151, 0))</f>
+        <f>IF(I151="Completed","", IF(OR(F151="", F151=0), "", IF(TODAY()&gt;F151, TODAY()-F151, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2094,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="N152">
-        <f>IF(I152="Completed",0, IF(TODAY()&gt;F152, TODAY()-F152, 0))</f>
+        <f>IF(I152="Completed","", IF(OR(F152="", F152=0), "", IF(TODAY()&gt;F152, TODAY()-F152, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2104,7 +2136,7 @@
         <v>0</v>
       </c>
       <c r="N153">
-        <f>IF(I153="Completed",0, IF(TODAY()&gt;F153, TODAY()-F153, 0))</f>
+        <f>IF(I153="Completed","", IF(OR(F153="", F153=0), "", IF(TODAY()&gt;F153, TODAY()-F153, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2114,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="N154">
-        <f>IF(I154="Completed",0, IF(TODAY()&gt;F154, TODAY()-F154, 0))</f>
+        <f>IF(I154="Completed","", IF(OR(F154="", F154=0), "", IF(TODAY()&gt;F154, TODAY()-F154, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="N155">
-        <f>IF(I155="Completed",0, IF(TODAY()&gt;F155, TODAY()-F155, 0))</f>
+        <f>IF(I155="Completed","", IF(OR(F155="", F155=0), "", IF(TODAY()&gt;F155, TODAY()-F155, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2134,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="N156">
-        <f>IF(I156="Completed",0, IF(TODAY()&gt;F156, TODAY()-F156, 0))</f>
+        <f>IF(I156="Completed","", IF(OR(F156="", F156=0), "", IF(TODAY()&gt;F156, TODAY()-F156, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2144,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="N157">
-        <f>IF(I157="Completed",0, IF(TODAY()&gt;F157, TODAY()-F157, 0))</f>
+        <f>IF(I157="Completed","", IF(OR(F157="", F157=0), "", IF(TODAY()&gt;F157, TODAY()-F157, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2154,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="N158">
-        <f>IF(I158="Completed",0, IF(TODAY()&gt;F158, TODAY()-F158, 0))</f>
+        <f>IF(I158="Completed","", IF(OR(F158="", F158=0), "", IF(TODAY()&gt;F158, TODAY()-F158, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2164,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="N159">
-        <f>IF(I159="Completed",0, IF(TODAY()&gt;F159, TODAY()-F159, 0))</f>
+        <f>IF(I159="Completed","", IF(OR(F159="", F159=0), "", IF(TODAY()&gt;F159, TODAY()-F159, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2174,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="N160">
-        <f>IF(I160="Completed",0, IF(TODAY()&gt;F160, TODAY()-F160, 0))</f>
+        <f>IF(I160="Completed","", IF(OR(F160="", F160=0), "", IF(TODAY()&gt;F160, TODAY()-F160, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2184,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="N161">
-        <f>IF(I161="Completed",0, IF(TODAY()&gt;F161, TODAY()-F161, 0))</f>
+        <f>IF(I161="Completed","", IF(OR(F161="", F161=0), "", IF(TODAY()&gt;F161, TODAY()-F161, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2194,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="N162">
-        <f>IF(I162="Completed",0, IF(TODAY()&gt;F162, TODAY()-F162, 0))</f>
+        <f>IF(I162="Completed","", IF(OR(F162="", F162=0), "", IF(TODAY()&gt;F162, TODAY()-F162, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2204,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="N163">
-        <f>IF(I163="Completed",0, IF(TODAY()&gt;F163, TODAY()-F163, 0))</f>
+        <f>IF(I163="Completed","", IF(OR(F163="", F163=0), "", IF(TODAY()&gt;F163, TODAY()-F163, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2214,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="N164">
-        <f>IF(I164="Completed",0, IF(TODAY()&gt;F164, TODAY()-F164, 0))</f>
+        <f>IF(I164="Completed","", IF(OR(F164="", F164=0), "", IF(TODAY()&gt;F164, TODAY()-F164, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2224,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="N165">
-        <f>IF(I165="Completed",0, IF(TODAY()&gt;F165, TODAY()-F165, 0))</f>
+        <f>IF(I165="Completed","", IF(OR(F165="", F165=0), "", IF(TODAY()&gt;F165, TODAY()-F165, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2234,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="N166">
-        <f>IF(I166="Completed",0, IF(TODAY()&gt;F166, TODAY()-F166, 0))</f>
+        <f>IF(I166="Completed","", IF(OR(F166="", F166=0), "", IF(TODAY()&gt;F166, TODAY()-F166, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2244,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="N167">
-        <f>IF(I167="Completed",0, IF(TODAY()&gt;F167, TODAY()-F167, 0))</f>
+        <f>IF(I167="Completed","", IF(OR(F167="", F167=0), "", IF(TODAY()&gt;F167, TODAY()-F167, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2254,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="N168">
-        <f>IF(I168="Completed",0, IF(TODAY()&gt;F168, TODAY()-F168, 0))</f>
+        <f>IF(I168="Completed","", IF(OR(F168="", F168=0), "", IF(TODAY()&gt;F168, TODAY()-F168, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2264,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="N169">
-        <f>IF(I169="Completed",0, IF(TODAY()&gt;F169, TODAY()-F169, 0))</f>
+        <f>IF(I169="Completed","", IF(OR(F169="", F169=0), "", IF(TODAY()&gt;F169, TODAY()-F169, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2274,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="N170">
-        <f>IF(I170="Completed",0, IF(TODAY()&gt;F170, TODAY()-F170, 0))</f>
+        <f>IF(I170="Completed","", IF(OR(F170="", F170=0), "", IF(TODAY()&gt;F170, TODAY()-F170, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2284,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="N171">
-        <f>IF(I171="Completed",0, IF(TODAY()&gt;F171, TODAY()-F171, 0))</f>
+        <f>IF(I171="Completed","", IF(OR(F171="", F171=0), "", IF(TODAY()&gt;F171, TODAY()-F171, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2294,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="N172">
-        <f>IF(I172="Completed",0, IF(TODAY()&gt;F172, TODAY()-F172, 0))</f>
+        <f>IF(I172="Completed","", IF(OR(F172="", F172=0), "", IF(TODAY()&gt;F172, TODAY()-F172, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2304,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="N173">
-        <f>IF(I173="Completed",0, IF(TODAY()&gt;F173, TODAY()-F173, 0))</f>
+        <f>IF(I173="Completed","", IF(OR(F173="", F173=0), "", IF(TODAY()&gt;F173, TODAY()-F173, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2314,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="N174">
-        <f>IF(I174="Completed",0, IF(TODAY()&gt;F174, TODAY()-F174, 0))</f>
+        <f>IF(I174="Completed","", IF(OR(F174="", F174=0), "", IF(TODAY()&gt;F174, TODAY()-F174, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2324,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="N175">
-        <f>IF(I175="Completed",0, IF(TODAY()&gt;F175, TODAY()-F175, 0))</f>
+        <f>IF(I175="Completed","", IF(OR(F175="", F175=0), "", IF(TODAY()&gt;F175, TODAY()-F175, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2334,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="N176">
-        <f>IF(I176="Completed",0, IF(TODAY()&gt;F176, TODAY()-F176, 0))</f>
+        <f>IF(I176="Completed","", IF(OR(F176="", F176=0), "", IF(TODAY()&gt;F176, TODAY()-F176, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2344,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="N177">
-        <f>IF(I177="Completed",0, IF(TODAY()&gt;F177, TODAY()-F177, 0))</f>
+        <f>IF(I177="Completed","", IF(OR(F177="", F177=0), "", IF(TODAY()&gt;F177, TODAY()-F177, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2354,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="N178">
-        <f>IF(I178="Completed",0, IF(TODAY()&gt;F178, TODAY()-F178, 0))</f>
+        <f>IF(I178="Completed","", IF(OR(F178="", F178=0), "", IF(TODAY()&gt;F178, TODAY()-F178, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2364,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="N179">
-        <f>IF(I179="Completed",0, IF(TODAY()&gt;F179, TODAY()-F179, 0))</f>
+        <f>IF(I179="Completed","", IF(OR(F179="", F179=0), "", IF(TODAY()&gt;F179, TODAY()-F179, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2374,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="N180">
-        <f>IF(I180="Completed",0, IF(TODAY()&gt;F180, TODAY()-F180, 0))</f>
+        <f>IF(I180="Completed","", IF(OR(F180="", F180=0), "", IF(TODAY()&gt;F180, TODAY()-F180, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2384,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="N181">
-        <f>IF(I181="Completed",0, IF(TODAY()&gt;F181, TODAY()-F181, 0))</f>
+        <f>IF(I181="Completed","", IF(OR(F181="", F181=0), "", IF(TODAY()&gt;F181, TODAY()-F181, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2394,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="N182">
-        <f>IF(I182="Completed",0, IF(TODAY()&gt;F182, TODAY()-F182, 0))</f>
+        <f>IF(I182="Completed","", IF(OR(F182="", F182=0), "", IF(TODAY()&gt;F182, TODAY()-F182, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2404,7 +2436,7 @@
         <v>0</v>
       </c>
       <c r="N183">
-        <f>IF(I183="Completed",0, IF(TODAY()&gt;F183, TODAY()-F183, 0))</f>
+        <f>IF(I183="Completed","", IF(OR(F183="", F183=0), "", IF(TODAY()&gt;F183, TODAY()-F183, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2414,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="N184">
-        <f>IF(I184="Completed",0, IF(TODAY()&gt;F184, TODAY()-F184, 0))</f>
+        <f>IF(I184="Completed","", IF(OR(F184="", F184=0), "", IF(TODAY()&gt;F184, TODAY()-F184, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2424,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="N185">
-        <f>IF(I185="Completed",0, IF(TODAY()&gt;F185, TODAY()-F185, 0))</f>
+        <f>IF(I185="Completed","", IF(OR(F185="", F185=0), "", IF(TODAY()&gt;F185, TODAY()-F185, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2434,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="N186">
-        <f>IF(I186="Completed",0, IF(TODAY()&gt;F186, TODAY()-F186, 0))</f>
+        <f>IF(I186="Completed","", IF(OR(F186="", F186=0), "", IF(TODAY()&gt;F186, TODAY()-F186, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2444,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="N187">
-        <f>IF(I187="Completed",0, IF(TODAY()&gt;F187, TODAY()-F187, 0))</f>
+        <f>IF(I187="Completed","", IF(OR(F187="", F187=0), "", IF(TODAY()&gt;F187, TODAY()-F187, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2454,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="N188">
-        <f>IF(I188="Completed",0, IF(TODAY()&gt;F188, TODAY()-F188, 0))</f>
+        <f>IF(I188="Completed","", IF(OR(F188="", F188=0), "", IF(TODAY()&gt;F188, TODAY()-F188, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2464,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="N189">
-        <f>IF(I189="Completed",0, IF(TODAY()&gt;F189, TODAY()-F189, 0))</f>
+        <f>IF(I189="Completed","", IF(OR(F189="", F189=0), "", IF(TODAY()&gt;F189, TODAY()-F189, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2474,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="N190">
-        <f>IF(I190="Completed",0, IF(TODAY()&gt;F190, TODAY()-F190, 0))</f>
+        <f>IF(I190="Completed","", IF(OR(F190="", F190=0), "", IF(TODAY()&gt;F190, TODAY()-F190, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2484,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="N191">
-        <f>IF(I191="Completed",0, IF(TODAY()&gt;F191, TODAY()-F191, 0))</f>
+        <f>IF(I191="Completed","", IF(OR(F191="", F191=0), "", IF(TODAY()&gt;F191, TODAY()-F191, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2494,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="N192">
-        <f>IF(I192="Completed",0, IF(TODAY()&gt;F192, TODAY()-F192, 0))</f>
+        <f>IF(I192="Completed","", IF(OR(F192="", F192=0), "", IF(TODAY()&gt;F192, TODAY()-F192, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2504,7 +2536,7 @@
         <v>0</v>
       </c>
       <c r="N193">
-        <f>IF(I193="Completed",0, IF(TODAY()&gt;F193, TODAY()-F193, 0))</f>
+        <f>IF(I193="Completed","", IF(OR(F193="", F193=0), "", IF(TODAY()&gt;F193, TODAY()-F193, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2514,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="N194">
-        <f>IF(I194="Completed",0, IF(TODAY()&gt;F194, TODAY()-F194, 0))</f>
+        <f>IF(I194="Completed","", IF(OR(F194="", F194=0), "", IF(TODAY()&gt;F194, TODAY()-F194, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2524,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="N195">
-        <f>IF(I195="Completed",0, IF(TODAY()&gt;F195, TODAY()-F195, 0))</f>
+        <f>IF(I195="Completed","", IF(OR(F195="", F195=0), "", IF(TODAY()&gt;F195, TODAY()-F195, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2534,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="N196">
-        <f>IF(I196="Completed",0, IF(TODAY()&gt;F196, TODAY()-F196, 0))</f>
+        <f>IF(I196="Completed","", IF(OR(F196="", F196=0), "", IF(TODAY()&gt;F196, TODAY()-F196, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2544,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="N197">
-        <f>IF(I197="Completed",0, IF(TODAY()&gt;F197, TODAY()-F197, 0))</f>
+        <f>IF(I197="Completed","", IF(OR(F197="", F197=0), "", IF(TODAY()&gt;F197, TODAY()-F197, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2554,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="N198">
-        <f>IF(I198="Completed",0, IF(TODAY()&gt;F198, TODAY()-F198, 0))</f>
+        <f>IF(I198="Completed","", IF(OR(F198="", F198=0), "", IF(TODAY()&gt;F198, TODAY()-F198, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2564,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="N199">
-        <f>IF(I199="Completed",0, IF(TODAY()&gt;F199, TODAY()-F199, 0))</f>
+        <f>IF(I199="Completed","", IF(OR(F199="", F199=0), "", IF(TODAY()&gt;F199, TODAY()-F199, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2574,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="N200">
-        <f>IF(I200="Completed",0, IF(TODAY()&gt;F200, TODAY()-F200, 0))</f>
+        <f>IF(I200="Completed","", IF(OR(F200="", F200=0), "", IF(TODAY()&gt;F200, TODAY()-F200, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2584,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="N201">
-        <f>IF(I201="Completed",0, IF(TODAY()&gt;F201, TODAY()-F201, 0))</f>
+        <f>IF(I201="Completed","", IF(OR(F201="", F201=0), "", IF(TODAY()&gt;F201, TODAY()-F201, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2594,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="N202">
-        <f>IF(I202="Completed",0, IF(TODAY()&gt;F202, TODAY()-F202, 0))</f>
+        <f>IF(I202="Completed","", IF(OR(F202="", F202=0), "", IF(TODAY()&gt;F202, TODAY()-F202, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2604,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="N203">
-        <f>IF(I203="Completed",0, IF(TODAY()&gt;F203, TODAY()-F203, 0))</f>
+        <f>IF(I203="Completed","", IF(OR(F203="", F203=0), "", IF(TODAY()&gt;F203, TODAY()-F203, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2614,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="N204">
-        <f>IF(I204="Completed",0, IF(TODAY()&gt;F204, TODAY()-F204, 0))</f>
+        <f>IF(I204="Completed","", IF(OR(F204="", F204=0), "", IF(TODAY()&gt;F204, TODAY()-F204, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2624,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="N205">
-        <f>IF(I205="Completed",0, IF(TODAY()&gt;F205, TODAY()-F205, 0))</f>
+        <f>IF(I205="Completed","", IF(OR(F205="", F205=0), "", IF(TODAY()&gt;F205, TODAY()-F205, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2634,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="N206">
-        <f>IF(I206="Completed",0, IF(TODAY()&gt;F206, TODAY()-F206, 0))</f>
+        <f>IF(I206="Completed","", IF(OR(F206="", F206=0), "", IF(TODAY()&gt;F206, TODAY()-F206, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2644,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="N207">
-        <f>IF(I207="Completed",0, IF(TODAY()&gt;F207, TODAY()-F207, 0))</f>
+        <f>IF(I207="Completed","", IF(OR(F207="", F207=0), "", IF(TODAY()&gt;F207, TODAY()-F207, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2654,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="N208">
-        <f>IF(I208="Completed",0, IF(TODAY()&gt;F208, TODAY()-F208, 0))</f>
+        <f>IF(I208="Completed","", IF(OR(F208="", F208=0), "", IF(TODAY()&gt;F208, TODAY()-F208, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2664,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="N209">
-        <f>IF(I209="Completed",0, IF(TODAY()&gt;F209, TODAY()-F209, 0))</f>
+        <f>IF(I209="Completed","", IF(OR(F209="", F209=0), "", IF(TODAY()&gt;F209, TODAY()-F209, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2674,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="N210">
-        <f>IF(I210="Completed",0, IF(TODAY()&gt;F210, TODAY()-F210, 0))</f>
+        <f>IF(I210="Completed","", IF(OR(F210="", F210=0), "", IF(TODAY()&gt;F210, TODAY()-F210, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2684,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="N211">
-        <f>IF(I211="Completed",0, IF(TODAY()&gt;F211, TODAY()-F211, 0))</f>
+        <f>IF(I211="Completed","", IF(OR(F211="", F211=0), "", IF(TODAY()&gt;F211, TODAY()-F211, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2694,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="N212">
-        <f>IF(I212="Completed",0, IF(TODAY()&gt;F212, TODAY()-F212, 0))</f>
+        <f>IF(I212="Completed","", IF(OR(F212="", F212=0), "", IF(TODAY()&gt;F212, TODAY()-F212, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2704,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="N213">
-        <f>IF(I213="Completed",0, IF(TODAY()&gt;F213, TODAY()-F213, 0))</f>
+        <f>IF(I213="Completed","", IF(OR(F213="", F213=0), "", IF(TODAY()&gt;F213, TODAY()-F213, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2714,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="N214">
-        <f>IF(I214="Completed",0, IF(TODAY()&gt;F214, TODAY()-F214, 0))</f>
+        <f>IF(I214="Completed","", IF(OR(F214="", F214=0), "", IF(TODAY()&gt;F214, TODAY()-F214, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2724,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="N215">
-        <f>IF(I215="Completed",0, IF(TODAY()&gt;F215, TODAY()-F215, 0))</f>
+        <f>IF(I215="Completed","", IF(OR(F215="", F215=0), "", IF(TODAY()&gt;F215, TODAY()-F215, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2734,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="N216">
-        <f>IF(I216="Completed",0, IF(TODAY()&gt;F216, TODAY()-F216, 0))</f>
+        <f>IF(I216="Completed","", IF(OR(F216="", F216=0), "", IF(TODAY()&gt;F216, TODAY()-F216, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2744,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="N217">
-        <f>IF(I217="Completed",0, IF(TODAY()&gt;F217, TODAY()-F217, 0))</f>
+        <f>IF(I217="Completed","", IF(OR(F217="", F217=0), "", IF(TODAY()&gt;F217, TODAY()-F217, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2754,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="N218">
-        <f>IF(I218="Completed",0, IF(TODAY()&gt;F218, TODAY()-F218, 0))</f>
+        <f>IF(I218="Completed","", IF(OR(F218="", F218=0), "", IF(TODAY()&gt;F218, TODAY()-F218, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2764,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="N219">
-        <f>IF(I219="Completed",0, IF(TODAY()&gt;F219, TODAY()-F219, 0))</f>
+        <f>IF(I219="Completed","", IF(OR(F219="", F219=0), "", IF(TODAY()&gt;F219, TODAY()-F219, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2774,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="N220">
-        <f>IF(I220="Completed",0, IF(TODAY()&gt;F220, TODAY()-F220, 0))</f>
+        <f>IF(I220="Completed","", IF(OR(F220="", F220=0), "", IF(TODAY()&gt;F220, TODAY()-F220, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2784,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="N221">
-        <f>IF(I221="Completed",0, IF(TODAY()&gt;F221, TODAY()-F221, 0))</f>
+        <f>IF(I221="Completed","", IF(OR(F221="", F221=0), "", IF(TODAY()&gt;F221, TODAY()-F221, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2794,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="N222">
-        <f>IF(I222="Completed",0, IF(TODAY()&gt;F222, TODAY()-F222, 0))</f>
+        <f>IF(I222="Completed","", IF(OR(F222="", F222=0), "", IF(TODAY()&gt;F222, TODAY()-F222, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2804,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="N223">
-        <f>IF(I223="Completed",0, IF(TODAY()&gt;F223, TODAY()-F223, 0))</f>
+        <f>IF(I223="Completed","", IF(OR(F223="", F223=0), "", IF(TODAY()&gt;F223, TODAY()-F223, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2814,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="N224">
-        <f>IF(I224="Completed",0, IF(TODAY()&gt;F224, TODAY()-F224, 0))</f>
+        <f>IF(I224="Completed","", IF(OR(F224="", F224=0), "", IF(TODAY()&gt;F224, TODAY()-F224, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2824,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="N225">
-        <f>IF(I225="Completed",0, IF(TODAY()&gt;F225, TODAY()-F225, 0))</f>
+        <f>IF(I225="Completed","", IF(OR(F225="", F225=0), "", IF(TODAY()&gt;F225, TODAY()-F225, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2834,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="N226">
-        <f>IF(I226="Completed",0, IF(TODAY()&gt;F226, TODAY()-F226, 0))</f>
+        <f>IF(I226="Completed","", IF(OR(F226="", F226=0), "", IF(TODAY()&gt;F226, TODAY()-F226, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2844,7 +2876,7 @@
         <v>0</v>
       </c>
       <c r="N227">
-        <f>IF(I227="Completed",0, IF(TODAY()&gt;F227, TODAY()-F227, 0))</f>
+        <f>IF(I227="Completed","", IF(OR(F227="", F227=0), "", IF(TODAY()&gt;F227, TODAY()-F227, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2854,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="N228">
-        <f>IF(I228="Completed",0, IF(TODAY()&gt;F228, TODAY()-F228, 0))</f>
+        <f>IF(I228="Completed","", IF(OR(F228="", F228=0), "", IF(TODAY()&gt;F228, TODAY()-F228, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2864,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="N229">
-        <f>IF(I229="Completed",0, IF(TODAY()&gt;F229, TODAY()-F229, 0))</f>
+        <f>IF(I229="Completed","", IF(OR(F229="", F229=0), "", IF(TODAY()&gt;F229, TODAY()-F229, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2874,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="N230">
-        <f>IF(I230="Completed",0, IF(TODAY()&gt;F230, TODAY()-F230, 0))</f>
+        <f>IF(I230="Completed","", IF(OR(F230="", F230=0), "", IF(TODAY()&gt;F230, TODAY()-F230, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2884,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="N231">
-        <f>IF(I231="Completed",0, IF(TODAY()&gt;F231, TODAY()-F231, 0))</f>
+        <f>IF(I231="Completed","", IF(OR(F231="", F231=0), "", IF(TODAY()&gt;F231, TODAY()-F231, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2894,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="N232">
-        <f>IF(I232="Completed",0, IF(TODAY()&gt;F232, TODAY()-F232, 0))</f>
+        <f>IF(I232="Completed","", IF(OR(F232="", F232=0), "", IF(TODAY()&gt;F232, TODAY()-F232, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2904,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="N233">
-        <f>IF(I233="Completed",0, IF(TODAY()&gt;F233, TODAY()-F233, 0))</f>
+        <f>IF(I233="Completed","", IF(OR(F233="", F233=0), "", IF(TODAY()&gt;F233, TODAY()-F233, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2914,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="N234">
-        <f>IF(I234="Completed",0, IF(TODAY()&gt;F234, TODAY()-F234, 0))</f>
+        <f>IF(I234="Completed","", IF(OR(F234="", F234=0), "", IF(TODAY()&gt;F234, TODAY()-F234, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2924,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="N235">
-        <f>IF(I235="Completed",0, IF(TODAY()&gt;F235, TODAY()-F235, 0))</f>
+        <f>IF(I235="Completed","", IF(OR(F235="", F235=0), "", IF(TODAY()&gt;F235, TODAY()-F235, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2934,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="N236">
-        <f>IF(I236="Completed",0, IF(TODAY()&gt;F236, TODAY()-F236, 0))</f>
+        <f>IF(I236="Completed","", IF(OR(F236="", F236=0), "", IF(TODAY()&gt;F236, TODAY()-F236, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2944,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="N237">
-        <f>IF(I237="Completed",0, IF(TODAY()&gt;F237, TODAY()-F237, 0))</f>
+        <f>IF(I237="Completed","", IF(OR(F237="", F237=0), "", IF(TODAY()&gt;F237, TODAY()-F237, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2954,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="N238">
-        <f>IF(I238="Completed",0, IF(TODAY()&gt;F238, TODAY()-F238, 0))</f>
+        <f>IF(I238="Completed","", IF(OR(F238="", F238=0), "", IF(TODAY()&gt;F238, TODAY()-F238, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2964,7 +2996,7 @@
         <v>0</v>
       </c>
       <c r="N239">
-        <f>IF(I239="Completed",0, IF(TODAY()&gt;F239, TODAY()-F239, 0))</f>
+        <f>IF(I239="Completed","", IF(OR(F239="", F239=0), "", IF(TODAY()&gt;F239, TODAY()-F239, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2974,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="N240">
-        <f>IF(I240="Completed",0, IF(TODAY()&gt;F240, TODAY()-F240, 0))</f>
+        <f>IF(I240="Completed","", IF(OR(F240="", F240=0), "", IF(TODAY()&gt;F240, TODAY()-F240, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2984,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="N241">
-        <f>IF(I241="Completed",0, IF(TODAY()&gt;F241, TODAY()-F241, 0))</f>
+        <f>IF(I241="Completed","", IF(OR(F241="", F241=0), "", IF(TODAY()&gt;F241, TODAY()-F241, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -2994,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="N242">
-        <f>IF(I242="Completed",0, IF(TODAY()&gt;F242, TODAY()-F242, 0))</f>
+        <f>IF(I242="Completed","", IF(OR(F242="", F242=0), "", IF(TODAY()&gt;F242, TODAY()-F242, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3004,7 +3036,7 @@
         <v>0</v>
       </c>
       <c r="N243">
-        <f>IF(I243="Completed",0, IF(TODAY()&gt;F243, TODAY()-F243, 0))</f>
+        <f>IF(I243="Completed","", IF(OR(F243="", F243=0), "", IF(TODAY()&gt;F243, TODAY()-F243, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3014,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="N244">
-        <f>IF(I244="Completed",0, IF(TODAY()&gt;F244, TODAY()-F244, 0))</f>
+        <f>IF(I244="Completed","", IF(OR(F244="", F244=0), "", IF(TODAY()&gt;F244, TODAY()-F244, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3024,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="N245">
-        <f>IF(I245="Completed",0, IF(TODAY()&gt;F245, TODAY()-F245, 0))</f>
+        <f>IF(I245="Completed","", IF(OR(F245="", F245=0), "", IF(TODAY()&gt;F245, TODAY()-F245, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3034,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="N246">
-        <f>IF(I246="Completed",0, IF(TODAY()&gt;F246, TODAY()-F246, 0))</f>
+        <f>IF(I246="Completed","", IF(OR(F246="", F246=0), "", IF(TODAY()&gt;F246, TODAY()-F246, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3044,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="N247">
-        <f>IF(I247="Completed",0, IF(TODAY()&gt;F247, TODAY()-F247, 0))</f>
+        <f>IF(I247="Completed","", IF(OR(F247="", F247=0), "", IF(TODAY()&gt;F247, TODAY()-F247, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3054,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="N248">
-        <f>IF(I248="Completed",0, IF(TODAY()&gt;F248, TODAY()-F248, 0))</f>
+        <f>IF(I248="Completed","", IF(OR(F248="", F248=0), "", IF(TODAY()&gt;F248, TODAY()-F248, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3064,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="N249">
-        <f>IF(I249="Completed",0, IF(TODAY()&gt;F249, TODAY()-F249, 0))</f>
+        <f>IF(I249="Completed","", IF(OR(F249="", F249=0), "", IF(TODAY()&gt;F249, TODAY()-F249, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3074,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="N250">
-        <f>IF(I250="Completed",0, IF(TODAY()&gt;F250, TODAY()-F250, 0))</f>
+        <f>IF(I250="Completed","", IF(OR(F250="", F250=0), "", IF(TODAY()&gt;F250, TODAY()-F250, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3084,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="N251">
-        <f>IF(I251="Completed",0, IF(TODAY()&gt;F251, TODAY()-F251, 0))</f>
+        <f>IF(I251="Completed","", IF(OR(F251="", F251=0), "", IF(TODAY()&gt;F251, TODAY()-F251, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3094,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="N252">
-        <f>IF(I252="Completed",0, IF(TODAY()&gt;F252, TODAY()-F252, 0))</f>
+        <f>IF(I252="Completed","", IF(OR(F252="", F252=0), "", IF(TODAY()&gt;F252, TODAY()-F252, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3104,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="N253">
-        <f>IF(I253="Completed",0, IF(TODAY()&gt;F253, TODAY()-F253, 0))</f>
+        <f>IF(I253="Completed","", IF(OR(F253="", F253=0), "", IF(TODAY()&gt;F253, TODAY()-F253, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3114,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="N254">
-        <f>IF(I254="Completed",0, IF(TODAY()&gt;F254, TODAY()-F254, 0))</f>
+        <f>IF(I254="Completed","", IF(OR(F254="", F254=0), "", IF(TODAY()&gt;F254, TODAY()-F254, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3124,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="N255">
-        <f>IF(I255="Completed",0, IF(TODAY()&gt;F255, TODAY()-F255, 0))</f>
+        <f>IF(I255="Completed","", IF(OR(F255="", F255=0), "", IF(TODAY()&gt;F255, TODAY()-F255, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3134,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="N256">
-        <f>IF(I256="Completed",0, IF(TODAY()&gt;F256, TODAY()-F256, 0))</f>
+        <f>IF(I256="Completed","", IF(OR(F256="", F256=0), "", IF(TODAY()&gt;F256, TODAY()-F256, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3144,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="N257">
-        <f>IF(I257="Completed",0, IF(TODAY()&gt;F257, TODAY()-F257, 0))</f>
+        <f>IF(I257="Completed","", IF(OR(F257="", F257=0), "", IF(TODAY()&gt;F257, TODAY()-F257, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3154,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="N258">
-        <f>IF(I258="Completed",0, IF(TODAY()&gt;F258, TODAY()-F258, 0))</f>
+        <f>IF(I258="Completed","", IF(OR(F258="", F258=0), "", IF(TODAY()&gt;F258, TODAY()-F258, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3164,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="N259">
-        <f>IF(I259="Completed",0, IF(TODAY()&gt;F259, TODAY()-F259, 0))</f>
+        <f>IF(I259="Completed","", IF(OR(F259="", F259=0), "", IF(TODAY()&gt;F259, TODAY()-F259, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3174,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="N260">
-        <f>IF(I260="Completed",0, IF(TODAY()&gt;F260, TODAY()-F260, 0))</f>
+        <f>IF(I260="Completed","", IF(OR(F260="", F260=0), "", IF(TODAY()&gt;F260, TODAY()-F260, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3184,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="N261">
-        <f>IF(I261="Completed",0, IF(TODAY()&gt;F261, TODAY()-F261, 0))</f>
+        <f>IF(I261="Completed","", IF(OR(F261="", F261=0), "", IF(TODAY()&gt;F261, TODAY()-F261, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3194,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="N262">
-        <f>IF(I262="Completed",0, IF(TODAY()&gt;F262, TODAY()-F262, 0))</f>
+        <f>IF(I262="Completed","", IF(OR(F262="", F262=0), "", IF(TODAY()&gt;F262, TODAY()-F262, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3204,7 +3236,7 @@
         <v>0</v>
       </c>
       <c r="N263">
-        <f>IF(I263="Completed",0, IF(TODAY()&gt;F263, TODAY()-F263, 0))</f>
+        <f>IF(I263="Completed","", IF(OR(F263="", F263=0), "", IF(TODAY()&gt;F263, TODAY()-F263, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3214,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="N264">
-        <f>IF(I264="Completed",0, IF(TODAY()&gt;F264, TODAY()-F264, 0))</f>
+        <f>IF(I264="Completed","", IF(OR(F264="", F264=0), "", IF(TODAY()&gt;F264, TODAY()-F264, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3224,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="N265">
-        <f>IF(I265="Completed",0, IF(TODAY()&gt;F265, TODAY()-F265, 0))</f>
+        <f>IF(I265="Completed","", IF(OR(F265="", F265=0), "", IF(TODAY()&gt;F265, TODAY()-F265, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3234,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="N266">
-        <f>IF(I266="Completed",0, IF(TODAY()&gt;F266, TODAY()-F266, 0))</f>
+        <f>IF(I266="Completed","", IF(OR(F266="", F266=0), "", IF(TODAY()&gt;F266, TODAY()-F266, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3244,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="N267">
-        <f>IF(I267="Completed",0, IF(TODAY()&gt;F267, TODAY()-F267, 0))</f>
+        <f>IF(I267="Completed","", IF(OR(F267="", F267=0), "", IF(TODAY()&gt;F267, TODAY()-F267, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3254,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="N268">
-        <f>IF(I268="Completed",0, IF(TODAY()&gt;F268, TODAY()-F268, 0))</f>
+        <f>IF(I268="Completed","", IF(OR(F268="", F268=0), "", IF(TODAY()&gt;F268, TODAY()-F268, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3264,7 +3296,7 @@
         <v>0</v>
       </c>
       <c r="N269">
-        <f>IF(I269="Completed",0, IF(TODAY()&gt;F269, TODAY()-F269, 0))</f>
+        <f>IF(I269="Completed","", IF(OR(F269="", F269=0), "", IF(TODAY()&gt;F269, TODAY()-F269, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3274,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="N270">
-        <f>IF(I270="Completed",0, IF(TODAY()&gt;F270, TODAY()-F270, 0))</f>
+        <f>IF(I270="Completed","", IF(OR(F270="", F270=0), "", IF(TODAY()&gt;F270, TODAY()-F270, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3284,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="N271">
-        <f>IF(I271="Completed",0, IF(TODAY()&gt;F271, TODAY()-F271, 0))</f>
+        <f>IF(I271="Completed","", IF(OR(F271="", F271=0), "", IF(TODAY()&gt;F271, TODAY()-F271, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3294,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="N272">
-        <f>IF(I272="Completed",0, IF(TODAY()&gt;F272, TODAY()-F272, 0))</f>
+        <f>IF(I272="Completed","", IF(OR(F272="", F272=0), "", IF(TODAY()&gt;F272, TODAY()-F272, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3304,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="N273">
-        <f>IF(I273="Completed",0, IF(TODAY()&gt;F273, TODAY()-F273, 0))</f>
+        <f>IF(I273="Completed","", IF(OR(F273="", F273=0), "", IF(TODAY()&gt;F273, TODAY()-F273, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3314,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="N274">
-        <f>IF(I274="Completed",0, IF(TODAY()&gt;F274, TODAY()-F274, 0))</f>
+        <f>IF(I274="Completed","", IF(OR(F274="", F274=0), "", IF(TODAY()&gt;F274, TODAY()-F274, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3324,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="N275">
-        <f>IF(I275="Completed",0, IF(TODAY()&gt;F275, TODAY()-F275, 0))</f>
+        <f>IF(I275="Completed","", IF(OR(F275="", F275=0), "", IF(TODAY()&gt;F275, TODAY()-F275, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3334,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="N276">
-        <f>IF(I276="Completed",0, IF(TODAY()&gt;F276, TODAY()-F276, 0))</f>
+        <f>IF(I276="Completed","", IF(OR(F276="", F276=0), "", IF(TODAY()&gt;F276, TODAY()-F276, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3344,7 +3376,7 @@
         <v>0</v>
       </c>
       <c r="N277">
-        <f>IF(I277="Completed",0, IF(TODAY()&gt;F277, TODAY()-F277, 0))</f>
+        <f>IF(I277="Completed","", IF(OR(F277="", F277=0), "", IF(TODAY()&gt;F277, TODAY()-F277, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3354,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="N278">
-        <f>IF(I278="Completed",0, IF(TODAY()&gt;F278, TODAY()-F278, 0))</f>
+        <f>IF(I278="Completed","", IF(OR(F278="", F278=0), "", IF(TODAY()&gt;F278, TODAY()-F278, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3364,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="N279">
-        <f>IF(I279="Completed",0, IF(TODAY()&gt;F279, TODAY()-F279, 0))</f>
+        <f>IF(I279="Completed","", IF(OR(F279="", F279=0), "", IF(TODAY()&gt;F279, TODAY()-F279, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3374,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="N280">
-        <f>IF(I280="Completed",0, IF(TODAY()&gt;F280, TODAY()-F280, 0))</f>
+        <f>IF(I280="Completed","", IF(OR(F280="", F280=0), "", IF(TODAY()&gt;F280, TODAY()-F280, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3384,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="N281">
-        <f>IF(I281="Completed",0, IF(TODAY()&gt;F281, TODAY()-F281, 0))</f>
+        <f>IF(I281="Completed","", IF(OR(F281="", F281=0), "", IF(TODAY()&gt;F281, TODAY()-F281, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3394,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="N282">
-        <f>IF(I282="Completed",0, IF(TODAY()&gt;F282, TODAY()-F282, 0))</f>
+        <f>IF(I282="Completed","", IF(OR(F282="", F282=0), "", IF(TODAY()&gt;F282, TODAY()-F282, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3404,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="N283">
-        <f>IF(I283="Completed",0, IF(TODAY()&gt;F283, TODAY()-F283, 0))</f>
+        <f>IF(I283="Completed","", IF(OR(F283="", F283=0), "", IF(TODAY()&gt;F283, TODAY()-F283, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3414,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="N284">
-        <f>IF(I284="Completed",0, IF(TODAY()&gt;F284, TODAY()-F284, 0))</f>
+        <f>IF(I284="Completed","", IF(OR(F284="", F284=0), "", IF(TODAY()&gt;F284, TODAY()-F284, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3424,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="N285">
-        <f>IF(I285="Completed",0, IF(TODAY()&gt;F285, TODAY()-F285, 0))</f>
+        <f>IF(I285="Completed","", IF(OR(F285="", F285=0), "", IF(TODAY()&gt;F285, TODAY()-F285, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3434,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="N286">
-        <f>IF(I286="Completed",0, IF(TODAY()&gt;F286, TODAY()-F286, 0))</f>
+        <f>IF(I286="Completed","", IF(OR(F286="", F286=0), "", IF(TODAY()&gt;F286, TODAY()-F286, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3444,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="N287">
-        <f>IF(I287="Completed",0, IF(TODAY()&gt;F287, TODAY()-F287, 0))</f>
+        <f>IF(I287="Completed","", IF(OR(F287="", F287=0), "", IF(TODAY()&gt;F287, TODAY()-F287, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3454,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="N288">
-        <f>IF(I288="Completed",0, IF(TODAY()&gt;F288, TODAY()-F288, 0))</f>
+        <f>IF(I288="Completed","", IF(OR(F288="", F288=0), "", IF(TODAY()&gt;F288, TODAY()-F288, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3464,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="N289">
-        <f>IF(I289="Completed",0, IF(TODAY()&gt;F289, TODAY()-F289, 0))</f>
+        <f>IF(I289="Completed","", IF(OR(F289="", F289=0), "", IF(TODAY()&gt;F289, TODAY()-F289, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3474,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="N290">
-        <f>IF(I290="Completed",0, IF(TODAY()&gt;F290, TODAY()-F290, 0))</f>
+        <f>IF(I290="Completed","", IF(OR(F290="", F290=0), "", IF(TODAY()&gt;F290, TODAY()-F290, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3484,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="N291">
-        <f>IF(I291="Completed",0, IF(TODAY()&gt;F291, TODAY()-F291, 0))</f>
+        <f>IF(I291="Completed","", IF(OR(F291="", F291=0), "", IF(TODAY()&gt;F291, TODAY()-F291, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3494,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="N292">
-        <f>IF(I292="Completed",0, IF(TODAY()&gt;F292, TODAY()-F292, 0))</f>
+        <f>IF(I292="Completed","", IF(OR(F292="", F292=0), "", IF(TODAY()&gt;F292, TODAY()-F292, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3504,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="N293">
-        <f>IF(I293="Completed",0, IF(TODAY()&gt;F293, TODAY()-F293, 0))</f>
+        <f>IF(I293="Completed","", IF(OR(F293="", F293=0), "", IF(TODAY()&gt;F293, TODAY()-F293, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3514,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="N294">
-        <f>IF(I294="Completed",0, IF(TODAY()&gt;F294, TODAY()-F294, 0))</f>
+        <f>IF(I294="Completed","", IF(OR(F294="", F294=0), "", IF(TODAY()&gt;F294, TODAY()-F294, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3524,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="N295">
-        <f>IF(I295="Completed",0, IF(TODAY()&gt;F295, TODAY()-F295, 0))</f>
+        <f>IF(I295="Completed","", IF(OR(F295="", F295=0), "", IF(TODAY()&gt;F295, TODAY()-F295, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3534,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="N296">
-        <f>IF(I296="Completed",0, IF(TODAY()&gt;F296, TODAY()-F296, 0))</f>
+        <f>IF(I296="Completed","", IF(OR(F296="", F296=0), "", IF(TODAY()&gt;F296, TODAY()-F296, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3544,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="N297">
-        <f>IF(I297="Completed",0, IF(TODAY()&gt;F297, TODAY()-F297, 0))</f>
+        <f>IF(I297="Completed","", IF(OR(F297="", F297=0), "", IF(TODAY()&gt;F297, TODAY()-F297, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3554,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="N298">
-        <f>IF(I298="Completed",0, IF(TODAY()&gt;F298, TODAY()-F298, 0))</f>
+        <f>IF(I298="Completed","", IF(OR(F298="", F298=0), "", IF(TODAY()&gt;F298, TODAY()-F298, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3564,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="N299">
-        <f>IF(I299="Completed",0, IF(TODAY()&gt;F299, TODAY()-F299, 0))</f>
+        <f>IF(I299="Completed","", IF(OR(F299="", F299=0), "", IF(TODAY()&gt;F299, TODAY()-F299, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3574,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="N300">
-        <f>IF(I300="Completed",0, IF(TODAY()&gt;F300, TODAY()-F300, 0))</f>
+        <f>IF(I300="Completed","", IF(OR(F300="", F300=0), "", IF(TODAY()&gt;F300, TODAY()-F300, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3584,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="N301">
-        <f>IF(I301="Completed",0, IF(TODAY()&gt;F301, TODAY()-F301, 0))</f>
+        <f>IF(I301="Completed","", IF(OR(F301="", F301=0), "", IF(TODAY()&gt;F301, TODAY()-F301, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3594,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="N302">
-        <f>IF(I302="Completed",0, IF(TODAY()&gt;F302, TODAY()-F302, 0))</f>
+        <f>IF(I302="Completed","", IF(OR(F302="", F302=0), "", IF(TODAY()&gt;F302, TODAY()-F302, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3604,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="N303">
-        <f>IF(I303="Completed",0, IF(TODAY()&gt;F303, TODAY()-F303, 0))</f>
+        <f>IF(I303="Completed","", IF(OR(F303="", F303=0), "", IF(TODAY()&gt;F303, TODAY()-F303, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3614,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="N304">
-        <f>IF(I304="Completed",0, IF(TODAY()&gt;F304, TODAY()-F304, 0))</f>
+        <f>IF(I304="Completed","", IF(OR(F304="", F304=0), "", IF(TODAY()&gt;F304, TODAY()-F304, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3624,7 +3656,7 @@
         <v>0</v>
       </c>
       <c r="N305">
-        <f>IF(I305="Completed",0, IF(TODAY()&gt;F305, TODAY()-F305, 0))</f>
+        <f>IF(I305="Completed","", IF(OR(F305="", F305=0), "", IF(TODAY()&gt;F305, TODAY()-F305, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3634,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="N306">
-        <f>IF(I306="Completed",0, IF(TODAY()&gt;F306, TODAY()-F306, 0))</f>
+        <f>IF(I306="Completed","", IF(OR(F306="", F306=0), "", IF(TODAY()&gt;F306, TODAY()-F306, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3644,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="N307">
-        <f>IF(I307="Completed",0, IF(TODAY()&gt;F307, TODAY()-F307, 0))</f>
+        <f>IF(I307="Completed","", IF(OR(F307="", F307=0), "", IF(TODAY()&gt;F307, TODAY()-F307, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3654,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="N308">
-        <f>IF(I308="Completed",0, IF(TODAY()&gt;F308, TODAY()-F308, 0))</f>
+        <f>IF(I308="Completed","", IF(OR(F308="", F308=0), "", IF(TODAY()&gt;F308, TODAY()-F308, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3664,7 +3696,7 @@
         <v>0</v>
       </c>
       <c r="N309">
-        <f>IF(I309="Completed",0, IF(TODAY()&gt;F309, TODAY()-F309, 0))</f>
+        <f>IF(I309="Completed","", IF(OR(F309="", F309=0), "", IF(TODAY()&gt;F309, TODAY()-F309, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3674,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="N310">
-        <f>IF(I310="Completed",0, IF(TODAY()&gt;F310, TODAY()-F310, 0))</f>
+        <f>IF(I310="Completed","", IF(OR(F310="", F310=0), "", IF(TODAY()&gt;F310, TODAY()-F310, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3684,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="N311">
-        <f>IF(I311="Completed",0, IF(TODAY()&gt;F311, TODAY()-F311, 0))</f>
+        <f>IF(I311="Completed","", IF(OR(F311="", F311=0), "", IF(TODAY()&gt;F311, TODAY()-F311, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3694,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="N312">
-        <f>IF(I312="Completed",0, IF(TODAY()&gt;F312, TODAY()-F312, 0))</f>
+        <f>IF(I312="Completed","", IF(OR(F312="", F312=0), "", IF(TODAY()&gt;F312, TODAY()-F312, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3704,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="N313">
-        <f>IF(I313="Completed",0, IF(TODAY()&gt;F313, TODAY()-F313, 0))</f>
+        <f>IF(I313="Completed","", IF(OR(F313="", F313=0), "", IF(TODAY()&gt;F313, TODAY()-F313, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3714,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="N314">
-        <f>IF(I314="Completed",0, IF(TODAY()&gt;F314, TODAY()-F314, 0))</f>
+        <f>IF(I314="Completed","", IF(OR(F314="", F314=0), "", IF(TODAY()&gt;F314, TODAY()-F314, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3724,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="N315">
-        <f>IF(I315="Completed",0, IF(TODAY()&gt;F315, TODAY()-F315, 0))</f>
+        <f>IF(I315="Completed","", IF(OR(F315="", F315=0), "", IF(TODAY()&gt;F315, TODAY()-F315, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3734,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="N316">
-        <f>IF(I316="Completed",0, IF(TODAY()&gt;F316, TODAY()-F316, 0))</f>
+        <f>IF(I316="Completed","", IF(OR(F316="", F316=0), "", IF(TODAY()&gt;F316, TODAY()-F316, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3744,7 +3776,7 @@
         <v>0</v>
       </c>
       <c r="N317">
-        <f>IF(I317="Completed",0, IF(TODAY()&gt;F317, TODAY()-F317, 0))</f>
+        <f>IF(I317="Completed","", IF(OR(F317="", F317=0), "", IF(TODAY()&gt;F317, TODAY()-F317, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3754,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="N318">
-        <f>IF(I318="Completed",0, IF(TODAY()&gt;F318, TODAY()-F318, 0))</f>
+        <f>IF(I318="Completed","", IF(OR(F318="", F318=0), "", IF(TODAY()&gt;F318, TODAY()-F318, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3764,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="N319">
-        <f>IF(I319="Completed",0, IF(TODAY()&gt;F319, TODAY()-F319, 0))</f>
+        <f>IF(I319="Completed","", IF(OR(F319="", F319=0), "", IF(TODAY()&gt;F319, TODAY()-F319, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3774,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="N320">
-        <f>IF(I320="Completed",0, IF(TODAY()&gt;F320, TODAY()-F320, 0))</f>
+        <f>IF(I320="Completed","", IF(OR(F320="", F320=0), "", IF(TODAY()&gt;F320, TODAY()-F320, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3784,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="N321">
-        <f>IF(I321="Completed",0, IF(TODAY()&gt;F321, TODAY()-F321, 0))</f>
+        <f>IF(I321="Completed","", IF(OR(F321="", F321=0), "", IF(TODAY()&gt;F321, TODAY()-F321, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3794,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="N322">
-        <f>IF(I322="Completed",0, IF(TODAY()&gt;F322, TODAY()-F322, 0))</f>
+        <f>IF(I322="Completed","", IF(OR(F322="", F322=0), "", IF(TODAY()&gt;F322, TODAY()-F322, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3804,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="N323">
-        <f>IF(I323="Completed",0, IF(TODAY()&gt;F323, TODAY()-F323, 0))</f>
+        <f>IF(I323="Completed","", IF(OR(F323="", F323=0), "", IF(TODAY()&gt;F323, TODAY()-F323, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3814,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="N324">
-        <f>IF(I324="Completed",0, IF(TODAY()&gt;F324, TODAY()-F324, 0))</f>
+        <f>IF(I324="Completed","", IF(OR(F324="", F324=0), "", IF(TODAY()&gt;F324, TODAY()-F324, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3824,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="N325">
-        <f>IF(I325="Completed",0, IF(TODAY()&gt;F325, TODAY()-F325, 0))</f>
+        <f>IF(I325="Completed","", IF(OR(F325="", F325=0), "", IF(TODAY()&gt;F325, TODAY()-F325, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3834,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="N326">
-        <f>IF(I326="Completed",0, IF(TODAY()&gt;F326, TODAY()-F326, 0))</f>
+        <f>IF(I326="Completed","", IF(OR(F326="", F326=0), "", IF(TODAY()&gt;F326, TODAY()-F326, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3844,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="N327">
-        <f>IF(I327="Completed",0, IF(TODAY()&gt;F327, TODAY()-F327, 0))</f>
+        <f>IF(I327="Completed","", IF(OR(F327="", F327=0), "", IF(TODAY()&gt;F327, TODAY()-F327, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3854,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="N328">
-        <f>IF(I328="Completed",0, IF(TODAY()&gt;F328, TODAY()-F328, 0))</f>
+        <f>IF(I328="Completed","", IF(OR(F328="", F328=0), "", IF(TODAY()&gt;F328, TODAY()-F328, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3864,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N329">
-        <f>IF(I329="Completed",0, IF(TODAY()&gt;F329, TODAY()-F329, 0))</f>
+        <f>IF(I329="Completed","", IF(OR(F329="", F329=0), "", IF(TODAY()&gt;F329, TODAY()-F329, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3874,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="N330">
-        <f>IF(I330="Completed",0, IF(TODAY()&gt;F330, TODAY()-F330, 0))</f>
+        <f>IF(I330="Completed","", IF(OR(F330="", F330=0), "", IF(TODAY()&gt;F330, TODAY()-F330, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3884,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="N331">
-        <f>IF(I331="Completed",0, IF(TODAY()&gt;F331, TODAY()-F331, 0))</f>
+        <f>IF(I331="Completed","", IF(OR(F331="", F331=0), "", IF(TODAY()&gt;F331, TODAY()-F331, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3894,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="N332">
-        <f>IF(I332="Completed",0, IF(TODAY()&gt;F332, TODAY()-F332, 0))</f>
+        <f>IF(I332="Completed","", IF(OR(F332="", F332=0), "", IF(TODAY()&gt;F332, TODAY()-F332, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3904,7 +3936,7 @@
         <v>0</v>
       </c>
       <c r="N333">
-        <f>IF(I333="Completed",0, IF(TODAY()&gt;F333, TODAY()-F333, 0))</f>
+        <f>IF(I333="Completed","", IF(OR(F333="", F333=0), "", IF(TODAY()&gt;F333, TODAY()-F333, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3914,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="N334">
-        <f>IF(I334="Completed",0, IF(TODAY()&gt;F334, TODAY()-F334, 0))</f>
+        <f>IF(I334="Completed","", IF(OR(F334="", F334=0), "", IF(TODAY()&gt;F334, TODAY()-F334, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3924,7 +3956,7 @@
         <v>0</v>
       </c>
       <c r="N335">
-        <f>IF(I335="Completed",0, IF(TODAY()&gt;F335, TODAY()-F335, 0))</f>
+        <f>IF(I335="Completed","", IF(OR(F335="", F335=0), "", IF(TODAY()&gt;F335, TODAY()-F335, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3934,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="N336">
-        <f>IF(I336="Completed",0, IF(TODAY()&gt;F336, TODAY()-F336, 0))</f>
+        <f>IF(I336="Completed","", IF(OR(F336="", F336=0), "", IF(TODAY()&gt;F336, TODAY()-F336, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3944,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="N337">
-        <f>IF(I337="Completed",0, IF(TODAY()&gt;F337, TODAY()-F337, 0))</f>
+        <f>IF(I337="Completed","", IF(OR(F337="", F337=0), "", IF(TODAY()&gt;F337, TODAY()-F337, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3954,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="N338">
-        <f>IF(I338="Completed",0, IF(TODAY()&gt;F338, TODAY()-F338, 0))</f>
+        <f>IF(I338="Completed","", IF(OR(F338="", F338=0), "", IF(TODAY()&gt;F338, TODAY()-F338, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3964,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="N339">
-        <f>IF(I339="Completed",0, IF(TODAY()&gt;F339, TODAY()-F339, 0))</f>
+        <f>IF(I339="Completed","", IF(OR(F339="", F339=0), "", IF(TODAY()&gt;F339, TODAY()-F339, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3974,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="N340">
-        <f>IF(I340="Completed",0, IF(TODAY()&gt;F340, TODAY()-F340, 0))</f>
+        <f>IF(I340="Completed","", IF(OR(F340="", F340=0), "", IF(TODAY()&gt;F340, TODAY()-F340, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3984,7 +4016,7 @@
         <v>0</v>
       </c>
       <c r="N341">
-        <f>IF(I341="Completed",0, IF(TODAY()&gt;F341, TODAY()-F341, 0))</f>
+        <f>IF(I341="Completed","", IF(OR(F341="", F341=0), "", IF(TODAY()&gt;F341, TODAY()-F341, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -3994,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="N342">
-        <f>IF(I342="Completed",0, IF(TODAY()&gt;F342, TODAY()-F342, 0))</f>
+        <f>IF(I342="Completed","", IF(OR(F342="", F342=0), "", IF(TODAY()&gt;F342, TODAY()-F342, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4004,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="N343">
-        <f>IF(I343="Completed",0, IF(TODAY()&gt;F343, TODAY()-F343, 0))</f>
+        <f>IF(I343="Completed","", IF(OR(F343="", F343=0), "", IF(TODAY()&gt;F343, TODAY()-F343, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4014,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="N344">
-        <f>IF(I344="Completed",0, IF(TODAY()&gt;F344, TODAY()-F344, 0))</f>
+        <f>IF(I344="Completed","", IF(OR(F344="", F344=0), "", IF(TODAY()&gt;F344, TODAY()-F344, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4024,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="N345">
-        <f>IF(I345="Completed",0, IF(TODAY()&gt;F345, TODAY()-F345, 0))</f>
+        <f>IF(I345="Completed","", IF(OR(F345="", F345=0), "", IF(TODAY()&gt;F345, TODAY()-F345, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4034,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="N346">
-        <f>IF(I346="Completed",0, IF(TODAY()&gt;F346, TODAY()-F346, 0))</f>
+        <f>IF(I346="Completed","", IF(OR(F346="", F346=0), "", IF(TODAY()&gt;F346, TODAY()-F346, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4044,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="N347">
-        <f>IF(I347="Completed",0, IF(TODAY()&gt;F347, TODAY()-F347, 0))</f>
+        <f>IF(I347="Completed","", IF(OR(F347="", F347=0), "", IF(TODAY()&gt;F347, TODAY()-F347, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4054,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="N348">
-        <f>IF(I348="Completed",0, IF(TODAY()&gt;F348, TODAY()-F348, 0))</f>
+        <f>IF(I348="Completed","", IF(OR(F348="", F348=0), "", IF(TODAY()&gt;F348, TODAY()-F348, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4064,7 +4096,7 @@
         <v>0</v>
       </c>
       <c r="N349">
-        <f>IF(I349="Completed",0, IF(TODAY()&gt;F349, TODAY()-F349, 0))</f>
+        <f>IF(I349="Completed","", IF(OR(F349="", F349=0), "", IF(TODAY()&gt;F349, TODAY()-F349, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4074,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="N350">
-        <f>IF(I350="Completed",0, IF(TODAY()&gt;F350, TODAY()-F350, 0))</f>
+        <f>IF(I350="Completed","", IF(OR(F350="", F350=0), "", IF(TODAY()&gt;F350, TODAY()-F350, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4084,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="N351">
-        <f>IF(I351="Completed",0, IF(TODAY()&gt;F351, TODAY()-F351, 0))</f>
+        <f>IF(I351="Completed","", IF(OR(F351="", F351=0), "", IF(TODAY()&gt;F351, TODAY()-F351, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4094,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="N352">
-        <f>IF(I352="Completed",0, IF(TODAY()&gt;F352, TODAY()-F352, 0))</f>
+        <f>IF(I352="Completed","", IF(OR(F352="", F352=0), "", IF(TODAY()&gt;F352, TODAY()-F352, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4104,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="N353">
-        <f>IF(I353="Completed",0, IF(TODAY()&gt;F353, TODAY()-F353, 0))</f>
+        <f>IF(I353="Completed","", IF(OR(F353="", F353=0), "", IF(TODAY()&gt;F353, TODAY()-F353, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4114,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="N354">
-        <f>IF(I354="Completed",0, IF(TODAY()&gt;F354, TODAY()-F354, 0))</f>
+        <f>IF(I354="Completed","", IF(OR(F354="", F354=0), "", IF(TODAY()&gt;F354, TODAY()-F354, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4124,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="N355">
-        <f>IF(I355="Completed",0, IF(TODAY()&gt;F355, TODAY()-F355, 0))</f>
+        <f>IF(I355="Completed","", IF(OR(F355="", F355=0), "", IF(TODAY()&gt;F355, TODAY()-F355, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4134,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="N356">
-        <f>IF(I356="Completed",0, IF(TODAY()&gt;F356, TODAY()-F356, 0))</f>
+        <f>IF(I356="Completed","", IF(OR(F356="", F356=0), "", IF(TODAY()&gt;F356, TODAY()-F356, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4144,7 +4176,7 @@
         <v>0</v>
       </c>
       <c r="N357">
-        <f>IF(I357="Completed",0, IF(TODAY()&gt;F357, TODAY()-F357, 0))</f>
+        <f>IF(I357="Completed","", IF(OR(F357="", F357=0), "", IF(TODAY()&gt;F357, TODAY()-F357, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4154,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="N358">
-        <f>IF(I358="Completed",0, IF(TODAY()&gt;F358, TODAY()-F358, 0))</f>
+        <f>IF(I358="Completed","", IF(OR(F358="", F358=0), "", IF(TODAY()&gt;F358, TODAY()-F358, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4164,7 +4196,7 @@
         <v>0</v>
       </c>
       <c r="N359">
-        <f>IF(I359="Completed",0, IF(TODAY()&gt;F359, TODAY()-F359, 0))</f>
+        <f>IF(I359="Completed","", IF(OR(F359="", F359=0), "", IF(TODAY()&gt;F359, TODAY()-F359, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4174,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="N360">
-        <f>IF(I360="Completed",0, IF(TODAY()&gt;F360, TODAY()-F360, 0))</f>
+        <f>IF(I360="Completed","", IF(OR(F360="", F360=0), "", IF(TODAY()&gt;F360, TODAY()-F360, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4184,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="N361">
-        <f>IF(I361="Completed",0, IF(TODAY()&gt;F361, TODAY()-F361, 0))</f>
+        <f>IF(I361="Completed","", IF(OR(F361="", F361=0), "", IF(TODAY()&gt;F361, TODAY()-F361, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4194,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="N362">
-        <f>IF(I362="Completed",0, IF(TODAY()&gt;F362, TODAY()-F362, 0))</f>
+        <f>IF(I362="Completed","", IF(OR(F362="", F362=0), "", IF(TODAY()&gt;F362, TODAY()-F362, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4204,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="N363">
-        <f>IF(I363="Completed",0, IF(TODAY()&gt;F363, TODAY()-F363, 0))</f>
+        <f>IF(I363="Completed","", IF(OR(F363="", F363=0), "", IF(TODAY()&gt;F363, TODAY()-F363, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4214,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="N364">
-        <f>IF(I364="Completed",0, IF(TODAY()&gt;F364, TODAY()-F364, 0))</f>
+        <f>IF(I364="Completed","", IF(OR(F364="", F364=0), "", IF(TODAY()&gt;F364, TODAY()-F364, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4224,7 +4256,7 @@
         <v>0</v>
       </c>
       <c r="N365">
-        <f>IF(I365="Completed",0, IF(TODAY()&gt;F365, TODAY()-F365, 0))</f>
+        <f>IF(I365="Completed","", IF(OR(F365="", F365=0), "", IF(TODAY()&gt;F365, TODAY()-F365, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4234,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="N366">
-        <f>IF(I366="Completed",0, IF(TODAY()&gt;F366, TODAY()-F366, 0))</f>
+        <f>IF(I366="Completed","", IF(OR(F366="", F366=0), "", IF(TODAY()&gt;F366, TODAY()-F366, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4244,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="N367">
-        <f>IF(I367="Completed",0, IF(TODAY()&gt;F367, TODAY()-F367, 0))</f>
+        <f>IF(I367="Completed","", IF(OR(F367="", F367=0), "", IF(TODAY()&gt;F367, TODAY()-F367, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4254,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="N368">
-        <f>IF(I368="Completed",0, IF(TODAY()&gt;F368, TODAY()-F368, 0))</f>
+        <f>IF(I368="Completed","", IF(OR(F368="", F368=0), "", IF(TODAY()&gt;F368, TODAY()-F368, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4264,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="N369">
-        <f>IF(I369="Completed",0, IF(TODAY()&gt;F369, TODAY()-F369, 0))</f>
+        <f>IF(I369="Completed","", IF(OR(F369="", F369=0), "", IF(TODAY()&gt;F369, TODAY()-F369, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4274,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="N370">
-        <f>IF(I370="Completed",0, IF(TODAY()&gt;F370, TODAY()-F370, 0))</f>
+        <f>IF(I370="Completed","", IF(OR(F370="", F370=0), "", IF(TODAY()&gt;F370, TODAY()-F370, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4284,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="N371">
-        <f>IF(I371="Completed",0, IF(TODAY()&gt;F371, TODAY()-F371, 0))</f>
+        <f>IF(I371="Completed","", IF(OR(F371="", F371=0), "", IF(TODAY()&gt;F371, TODAY()-F371, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4294,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="N372">
-        <f>IF(I372="Completed",0, IF(TODAY()&gt;F372, TODAY()-F372, 0))</f>
+        <f>IF(I372="Completed","", IF(OR(F372="", F372=0), "", IF(TODAY()&gt;F372, TODAY()-F372, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4304,7 +4336,7 @@
         <v>0</v>
       </c>
       <c r="N373">
-        <f>IF(I373="Completed",0, IF(TODAY()&gt;F373, TODAY()-F373, 0))</f>
+        <f>IF(I373="Completed","", IF(OR(F373="", F373=0), "", IF(TODAY()&gt;F373, TODAY()-F373, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4314,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="N374">
-        <f>IF(I374="Completed",0, IF(TODAY()&gt;F374, TODAY()-F374, 0))</f>
+        <f>IF(I374="Completed","", IF(OR(F374="", F374=0), "", IF(TODAY()&gt;F374, TODAY()-F374, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4324,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="N375">
-        <f>IF(I375="Completed",0, IF(TODAY()&gt;F375, TODAY()-F375, 0))</f>
+        <f>IF(I375="Completed","", IF(OR(F375="", F375=0), "", IF(TODAY()&gt;F375, TODAY()-F375, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4334,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="N376">
-        <f>IF(I376="Completed",0, IF(TODAY()&gt;F376, TODAY()-F376, 0))</f>
+        <f>IF(I376="Completed","", IF(OR(F376="", F376=0), "", IF(TODAY()&gt;F376, TODAY()-F376, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4344,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="N377">
-        <f>IF(I377="Completed",0, IF(TODAY()&gt;F377, TODAY()-F377, 0))</f>
+        <f>IF(I377="Completed","", IF(OR(F377="", F377=0), "", IF(TODAY()&gt;F377, TODAY()-F377, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4354,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="N378">
-        <f>IF(I378="Completed",0, IF(TODAY()&gt;F378, TODAY()-F378, 0))</f>
+        <f>IF(I378="Completed","", IF(OR(F378="", F378=0), "", IF(TODAY()&gt;F378, TODAY()-F378, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4364,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="N379">
-        <f>IF(I379="Completed",0, IF(TODAY()&gt;F379, TODAY()-F379, 0))</f>
+        <f>IF(I379="Completed","", IF(OR(F379="", F379=0), "", IF(TODAY()&gt;F379, TODAY()-F379, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4374,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="N380">
-        <f>IF(I380="Completed",0, IF(TODAY()&gt;F380, TODAY()-F380, 0))</f>
+        <f>IF(I380="Completed","", IF(OR(F380="", F380=0), "", IF(TODAY()&gt;F380, TODAY()-F380, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4384,7 +4416,7 @@
         <v>0</v>
       </c>
       <c r="N381">
-        <f>IF(I381="Completed",0, IF(TODAY()&gt;F381, TODAY()-F381, 0))</f>
+        <f>IF(I381="Completed","", IF(OR(F381="", F381=0), "", IF(TODAY()&gt;F381, TODAY()-F381, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4394,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="N382">
-        <f>IF(I382="Completed",0, IF(TODAY()&gt;F382, TODAY()-F382, 0))</f>
+        <f>IF(I382="Completed","", IF(OR(F382="", F382=0), "", IF(TODAY()&gt;F382, TODAY()-F382, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4404,7 +4436,7 @@
         <v>0</v>
       </c>
       <c r="N383">
-        <f>IF(I383="Completed",0, IF(TODAY()&gt;F383, TODAY()-F383, 0))</f>
+        <f>IF(I383="Completed","", IF(OR(F383="", F383=0), "", IF(TODAY()&gt;F383, TODAY()-F383, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4414,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="N384">
-        <f>IF(I384="Completed",0, IF(TODAY()&gt;F384, TODAY()-F384, 0))</f>
+        <f>IF(I384="Completed","", IF(OR(F384="", F384=0), "", IF(TODAY()&gt;F384, TODAY()-F384, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4424,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="N385">
-        <f>IF(I385="Completed",0, IF(TODAY()&gt;F385, TODAY()-F385, 0))</f>
+        <f>IF(I385="Completed","", IF(OR(F385="", F385=0), "", IF(TODAY()&gt;F385, TODAY()-F385, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4434,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="N386">
-        <f>IF(I386="Completed",0, IF(TODAY()&gt;F386, TODAY()-F386, 0))</f>
+        <f>IF(I386="Completed","", IF(OR(F386="", F386=0), "", IF(TODAY()&gt;F386, TODAY()-F386, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4444,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="N387">
-        <f>IF(I387="Completed",0, IF(TODAY()&gt;F387, TODAY()-F387, 0))</f>
+        <f>IF(I387="Completed","", IF(OR(F387="", F387=0), "", IF(TODAY()&gt;F387, TODAY()-F387, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4454,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="N388">
-        <f>IF(I388="Completed",0, IF(TODAY()&gt;F388, TODAY()-F388, 0))</f>
+        <f>IF(I388="Completed","", IF(OR(F388="", F388=0), "", IF(TODAY()&gt;F388, TODAY()-F388, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4464,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="N389">
-        <f>IF(I389="Completed",0, IF(TODAY()&gt;F389, TODAY()-F389, 0))</f>
+        <f>IF(I389="Completed","", IF(OR(F389="", F389=0), "", IF(TODAY()&gt;F389, TODAY()-F389, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4474,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="N390">
-        <f>IF(I390="Completed",0, IF(TODAY()&gt;F390, TODAY()-F390, 0))</f>
+        <f>IF(I390="Completed","", IF(OR(F390="", F390=0), "", IF(TODAY()&gt;F390, TODAY()-F390, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4484,7 +4516,7 @@
         <v>0</v>
       </c>
       <c r="N391">
-        <f>IF(I391="Completed",0, IF(TODAY()&gt;F391, TODAY()-F391, 0))</f>
+        <f>IF(I391="Completed","", IF(OR(F391="", F391=0), "", IF(TODAY()&gt;F391, TODAY()-F391, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4494,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="N392">
-        <f>IF(I392="Completed",0, IF(TODAY()&gt;F392, TODAY()-F392, 0))</f>
+        <f>IF(I392="Completed","", IF(OR(F392="", F392=0), "", IF(TODAY()&gt;F392, TODAY()-F392, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4504,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="N393">
-        <f>IF(I393="Completed",0, IF(TODAY()&gt;F393, TODAY()-F393, 0))</f>
+        <f>IF(I393="Completed","", IF(OR(F393="", F393=0), "", IF(TODAY()&gt;F393, TODAY()-F393, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4514,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="N394">
-        <f>IF(I394="Completed",0, IF(TODAY()&gt;F394, TODAY()-F394, 0))</f>
+        <f>IF(I394="Completed","", IF(OR(F394="", F394=0), "", IF(TODAY()&gt;F394, TODAY()-F394, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4524,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="N395">
-        <f>IF(I395="Completed",0, IF(TODAY()&gt;F395, TODAY()-F395, 0))</f>
+        <f>IF(I395="Completed","", IF(OR(F395="", F395=0), "", IF(TODAY()&gt;F395, TODAY()-F395, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4534,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="N396">
-        <f>IF(I396="Completed",0, IF(TODAY()&gt;F396, TODAY()-F396, 0))</f>
+        <f>IF(I396="Completed","", IF(OR(F396="", F396=0), "", IF(TODAY()&gt;F396, TODAY()-F396, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4544,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="N397">
-        <f>IF(I397="Completed",0, IF(TODAY()&gt;F397, TODAY()-F397, 0))</f>
+        <f>IF(I397="Completed","", IF(OR(F397="", F397=0), "", IF(TODAY()&gt;F397, TODAY()-F397, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4554,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="N398">
-        <f>IF(I398="Completed",0, IF(TODAY()&gt;F398, TODAY()-F398, 0))</f>
+        <f>IF(I398="Completed","", IF(OR(F398="", F398=0), "", IF(TODAY()&gt;F398, TODAY()-F398, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4564,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="N399">
-        <f>IF(I399="Completed",0, IF(TODAY()&gt;F399, TODAY()-F399, 0))</f>
+        <f>IF(I399="Completed","", IF(OR(F399="", F399=0), "", IF(TODAY()&gt;F399, TODAY()-F399, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4574,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="N400">
-        <f>IF(I400="Completed",0, IF(TODAY()&gt;F400, TODAY()-F400, 0))</f>
+        <f>IF(I400="Completed","", IF(OR(F400="", F400=0), "", IF(TODAY()&gt;F400, TODAY()-F400, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4584,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="N401">
-        <f>IF(I401="Completed",0, IF(TODAY()&gt;F401, TODAY()-F401, 0))</f>
+        <f>IF(I401="Completed","", IF(OR(F401="", F401=0), "", IF(TODAY()&gt;F401, TODAY()-F401, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4594,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="N402">
-        <f>IF(I402="Completed",0, IF(TODAY()&gt;F402, TODAY()-F402, 0))</f>
+        <f>IF(I402="Completed","", IF(OR(F402="", F402=0), "", IF(TODAY()&gt;F402, TODAY()-F402, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4604,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="N403">
-        <f>IF(I403="Completed",0, IF(TODAY()&gt;F403, TODAY()-F403, 0))</f>
+        <f>IF(I403="Completed","", IF(OR(F403="", F403=0), "", IF(TODAY()&gt;F403, TODAY()-F403, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4614,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="N404">
-        <f>IF(I404="Completed",0, IF(TODAY()&gt;F404, TODAY()-F404, 0))</f>
+        <f>IF(I404="Completed","", IF(OR(F404="", F404=0), "", IF(TODAY()&gt;F404, TODAY()-F404, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4624,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="N405">
-        <f>IF(I405="Completed",0, IF(TODAY()&gt;F405, TODAY()-F405, 0))</f>
+        <f>IF(I405="Completed","", IF(OR(F405="", F405=0), "", IF(TODAY()&gt;F405, TODAY()-F405, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4634,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="N406">
-        <f>IF(I406="Completed",0, IF(TODAY()&gt;F406, TODAY()-F406, 0))</f>
+        <f>IF(I406="Completed","", IF(OR(F406="", F406=0), "", IF(TODAY()&gt;F406, TODAY()-F406, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4644,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="N407">
-        <f>IF(I407="Completed",0, IF(TODAY()&gt;F407, TODAY()-F407, 0))</f>
+        <f>IF(I407="Completed","", IF(OR(F407="", F407=0), "", IF(TODAY()&gt;F407, TODAY()-F407, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4654,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="N408">
-        <f>IF(I408="Completed",0, IF(TODAY()&gt;F408, TODAY()-F408, 0))</f>
+        <f>IF(I408="Completed","", IF(OR(F408="", F408=0), "", IF(TODAY()&gt;F408, TODAY()-F408, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4664,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="N409">
-        <f>IF(I409="Completed",0, IF(TODAY()&gt;F409, TODAY()-F409, 0))</f>
+        <f>IF(I409="Completed","", IF(OR(F409="", F409=0), "", IF(TODAY()&gt;F409, TODAY()-F409, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4674,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="N410">
-        <f>IF(I410="Completed",0, IF(TODAY()&gt;F410, TODAY()-F410, 0))</f>
+        <f>IF(I410="Completed","", IF(OR(F410="", F410=0), "", IF(TODAY()&gt;F410, TODAY()-F410, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4684,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="N411">
-        <f>IF(I411="Completed",0, IF(TODAY()&gt;F411, TODAY()-F411, 0))</f>
+        <f>IF(I411="Completed","", IF(OR(F411="", F411=0), "", IF(TODAY()&gt;F411, TODAY()-F411, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4694,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="N412">
-        <f>IF(I412="Completed",0, IF(TODAY()&gt;F412, TODAY()-F412, 0))</f>
+        <f>IF(I412="Completed","", IF(OR(F412="", F412=0), "", IF(TODAY()&gt;F412, TODAY()-F412, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4704,7 +4736,7 @@
         <v>0</v>
       </c>
       <c r="N413">
-        <f>IF(I413="Completed",0, IF(TODAY()&gt;F413, TODAY()-F413, 0))</f>
+        <f>IF(I413="Completed","", IF(OR(F413="", F413=0), "", IF(TODAY()&gt;F413, TODAY()-F413, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4714,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="N414">
-        <f>IF(I414="Completed",0, IF(TODAY()&gt;F414, TODAY()-F414, 0))</f>
+        <f>IF(I414="Completed","", IF(OR(F414="", F414=0), "", IF(TODAY()&gt;F414, TODAY()-F414, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4724,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="N415">
-        <f>IF(I415="Completed",0, IF(TODAY()&gt;F415, TODAY()-F415, 0))</f>
+        <f>IF(I415="Completed","", IF(OR(F415="", F415=0), "", IF(TODAY()&gt;F415, TODAY()-F415, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4734,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="N416">
-        <f>IF(I416="Completed",0, IF(TODAY()&gt;F416, TODAY()-F416, 0))</f>
+        <f>IF(I416="Completed","", IF(OR(F416="", F416=0), "", IF(TODAY()&gt;F416, TODAY()-F416, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4744,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="N417">
-        <f>IF(I417="Completed",0, IF(TODAY()&gt;F417, TODAY()-F417, 0))</f>
+        <f>IF(I417="Completed","", IF(OR(F417="", F417=0), "", IF(TODAY()&gt;F417, TODAY()-F417, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4754,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="N418">
-        <f>IF(I418="Completed",0, IF(TODAY()&gt;F418, TODAY()-F418, 0))</f>
+        <f>IF(I418="Completed","", IF(OR(F418="", F418=0), "", IF(TODAY()&gt;F418, TODAY()-F418, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4764,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="N419">
-        <f>IF(I419="Completed",0, IF(TODAY()&gt;F419, TODAY()-F419, 0))</f>
+        <f>IF(I419="Completed","", IF(OR(F419="", F419=0), "", IF(TODAY()&gt;F419, TODAY()-F419, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4774,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="N420">
-        <f>IF(I420="Completed",0, IF(TODAY()&gt;F420, TODAY()-F420, 0))</f>
+        <f>IF(I420="Completed","", IF(OR(F420="", F420=0), "", IF(TODAY()&gt;F420, TODAY()-F420, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4784,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="N421">
-        <f>IF(I421="Completed",0, IF(TODAY()&gt;F421, TODAY()-F421, 0))</f>
+        <f>IF(I421="Completed","", IF(OR(F421="", F421=0), "", IF(TODAY()&gt;F421, TODAY()-F421, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4794,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="N422">
-        <f>IF(I422="Completed",0, IF(TODAY()&gt;F422, TODAY()-F422, 0))</f>
+        <f>IF(I422="Completed","", IF(OR(F422="", F422=0), "", IF(TODAY()&gt;F422, TODAY()-F422, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4804,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="N423">
-        <f>IF(I423="Completed",0, IF(TODAY()&gt;F423, TODAY()-F423, 0))</f>
+        <f>IF(I423="Completed","", IF(OR(F423="", F423=0), "", IF(TODAY()&gt;F423, TODAY()-F423, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4814,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="N424">
-        <f>IF(I424="Completed",0, IF(TODAY()&gt;F424, TODAY()-F424, 0))</f>
+        <f>IF(I424="Completed","", IF(OR(F424="", F424=0), "", IF(TODAY()&gt;F424, TODAY()-F424, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4824,7 +4856,7 @@
         <v>0</v>
       </c>
       <c r="N425">
-        <f>IF(I425="Completed",0, IF(TODAY()&gt;F425, TODAY()-F425, 0))</f>
+        <f>IF(I425="Completed","", IF(OR(F425="", F425=0), "", IF(TODAY()&gt;F425, TODAY()-F425, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4834,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="N426">
-        <f>IF(I426="Completed",0, IF(TODAY()&gt;F426, TODAY()-F426, 0))</f>
+        <f>IF(I426="Completed","", IF(OR(F426="", F426=0), "", IF(TODAY()&gt;F426, TODAY()-F426, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4844,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="N427">
-        <f>IF(I427="Completed",0, IF(TODAY()&gt;F427, TODAY()-F427, 0))</f>
+        <f>IF(I427="Completed","", IF(OR(F427="", F427=0), "", IF(TODAY()&gt;F427, TODAY()-F427, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4854,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="N428">
-        <f>IF(I428="Completed",0, IF(TODAY()&gt;F428, TODAY()-F428, 0))</f>
+        <f>IF(I428="Completed","", IF(OR(F428="", F428=0), "", IF(TODAY()&gt;F428, TODAY()-F428, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4864,7 +4896,7 @@
         <v>0</v>
       </c>
       <c r="N429">
-        <f>IF(I429="Completed",0, IF(TODAY()&gt;F429, TODAY()-F429, 0))</f>
+        <f>IF(I429="Completed","", IF(OR(F429="", F429=0), "", IF(TODAY()&gt;F429, TODAY()-F429, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4874,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="N430">
-        <f>IF(I430="Completed",0, IF(TODAY()&gt;F430, TODAY()-F430, 0))</f>
+        <f>IF(I430="Completed","", IF(OR(F430="", F430=0), "", IF(TODAY()&gt;F430, TODAY()-F430, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4884,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="N431">
-        <f>IF(I431="Completed",0, IF(TODAY()&gt;F431, TODAY()-F431, 0))</f>
+        <f>IF(I431="Completed","", IF(OR(F431="", F431=0), "", IF(TODAY()&gt;F431, TODAY()-F431, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4894,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="N432">
-        <f>IF(I432="Completed",0, IF(TODAY()&gt;F432, TODAY()-F432, 0))</f>
+        <f>IF(I432="Completed","", IF(OR(F432="", F432=0), "", IF(TODAY()&gt;F432, TODAY()-F432, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4904,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="N433">
-        <f>IF(I433="Completed",0, IF(TODAY()&gt;F433, TODAY()-F433, 0))</f>
+        <f>IF(I433="Completed","", IF(OR(F433="", F433=0), "", IF(TODAY()&gt;F433, TODAY()-F433, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4914,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="N434">
-        <f>IF(I434="Completed",0, IF(TODAY()&gt;F434, TODAY()-F434, 0))</f>
+        <f>IF(I434="Completed","", IF(OR(F434="", F434=0), "", IF(TODAY()&gt;F434, TODAY()-F434, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4924,7 +4956,7 @@
         <v>0</v>
       </c>
       <c r="N435">
-        <f>IF(I435="Completed",0, IF(TODAY()&gt;F435, TODAY()-F435, 0))</f>
+        <f>IF(I435="Completed","", IF(OR(F435="", F435=0), "", IF(TODAY()&gt;F435, TODAY()-F435, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4934,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="N436">
-        <f>IF(I436="Completed",0, IF(TODAY()&gt;F436, TODAY()-F436, 0))</f>
+        <f>IF(I436="Completed","", IF(OR(F436="", F436=0), "", IF(TODAY()&gt;F436, TODAY()-F436, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4944,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="N437">
-        <f>IF(I437="Completed",0, IF(TODAY()&gt;F437, TODAY()-F437, 0))</f>
+        <f>IF(I437="Completed","", IF(OR(F437="", F437=0), "", IF(TODAY()&gt;F437, TODAY()-F437, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4954,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="N438">
-        <f>IF(I438="Completed",0, IF(TODAY()&gt;F438, TODAY()-F438, 0))</f>
+        <f>IF(I438="Completed","", IF(OR(F438="", F438=0), "", IF(TODAY()&gt;F438, TODAY()-F438, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4964,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="N439">
-        <f>IF(I439="Completed",0, IF(TODAY()&gt;F439, TODAY()-F439, 0))</f>
+        <f>IF(I439="Completed","", IF(OR(F439="", F439=0), "", IF(TODAY()&gt;F439, TODAY()-F439, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4974,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="N440">
-        <f>IF(I440="Completed",0, IF(TODAY()&gt;F440, TODAY()-F440, 0))</f>
+        <f>IF(I440="Completed","", IF(OR(F440="", F440=0), "", IF(TODAY()&gt;F440, TODAY()-F440, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4984,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="N441">
-        <f>IF(I441="Completed",0, IF(TODAY()&gt;F441, TODAY()-F441, 0))</f>
+        <f>IF(I441="Completed","", IF(OR(F441="", F441=0), "", IF(TODAY()&gt;F441, TODAY()-F441, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -4994,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="N442">
-        <f>IF(I442="Completed",0, IF(TODAY()&gt;F442, TODAY()-F442, 0))</f>
+        <f>IF(I442="Completed","", IF(OR(F442="", F442=0), "", IF(TODAY()&gt;F442, TODAY()-F442, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5004,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="N443">
-        <f>IF(I443="Completed",0, IF(TODAY()&gt;F443, TODAY()-F443, 0))</f>
+        <f>IF(I443="Completed","", IF(OR(F443="", F443=0), "", IF(TODAY()&gt;F443, TODAY()-F443, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5014,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="N444">
-        <f>IF(I444="Completed",0, IF(TODAY()&gt;F444, TODAY()-F444, 0))</f>
+        <f>IF(I444="Completed","", IF(OR(F444="", F444=0), "", IF(TODAY()&gt;F444, TODAY()-F444, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5024,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="N445">
-        <f>IF(I445="Completed",0, IF(TODAY()&gt;F445, TODAY()-F445, 0))</f>
+        <f>IF(I445="Completed","", IF(OR(F445="", F445=0), "", IF(TODAY()&gt;F445, TODAY()-F445, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5034,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="N446">
-        <f>IF(I446="Completed",0, IF(TODAY()&gt;F446, TODAY()-F446, 0))</f>
+        <f>IF(I446="Completed","", IF(OR(F446="", F446=0), "", IF(TODAY()&gt;F446, TODAY()-F446, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5044,7 +5076,7 @@
         <v>0</v>
       </c>
       <c r="N447">
-        <f>IF(I447="Completed",0, IF(TODAY()&gt;F447, TODAY()-F447, 0))</f>
+        <f>IF(I447="Completed","", IF(OR(F447="", F447=0), "", IF(TODAY()&gt;F447, TODAY()-F447, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5054,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="N448">
-        <f>IF(I448="Completed",0, IF(TODAY()&gt;F448, TODAY()-F448, 0))</f>
+        <f>IF(I448="Completed","", IF(OR(F448="", F448=0), "", IF(TODAY()&gt;F448, TODAY()-F448, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5064,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="N449">
-        <f>IF(I449="Completed",0, IF(TODAY()&gt;F449, TODAY()-F449, 0))</f>
+        <f>IF(I449="Completed","", IF(OR(F449="", F449=0), "", IF(TODAY()&gt;F449, TODAY()-F449, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5074,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="N450">
-        <f>IF(I450="Completed",0, IF(TODAY()&gt;F450, TODAY()-F450, 0))</f>
+        <f>IF(I450="Completed","", IF(OR(F450="", F450=0), "", IF(TODAY()&gt;F450, TODAY()-F450, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5084,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="N451">
-        <f>IF(I451="Completed",0, IF(TODAY()&gt;F451, TODAY()-F451, 0))</f>
+        <f>IF(I451="Completed","", IF(OR(F451="", F451=0), "", IF(TODAY()&gt;F451, TODAY()-F451, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5094,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="N452">
-        <f>IF(I452="Completed",0, IF(TODAY()&gt;F452, TODAY()-F452, 0))</f>
+        <f>IF(I452="Completed","", IF(OR(F452="", F452=0), "", IF(TODAY()&gt;F452, TODAY()-F452, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5104,7 +5136,7 @@
         <v>0</v>
       </c>
       <c r="N453">
-        <f>IF(I453="Completed",0, IF(TODAY()&gt;F453, TODAY()-F453, 0))</f>
+        <f>IF(I453="Completed","", IF(OR(F453="", F453=0), "", IF(TODAY()&gt;F453, TODAY()-F453, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5114,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="N454">
-        <f>IF(I454="Completed",0, IF(TODAY()&gt;F454, TODAY()-F454, 0))</f>
+        <f>IF(I454="Completed","", IF(OR(F454="", F454=0), "", IF(TODAY()&gt;F454, TODAY()-F454, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5124,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="N455">
-        <f>IF(I455="Completed",0, IF(TODAY()&gt;F455, TODAY()-F455, 0))</f>
+        <f>IF(I455="Completed","", IF(OR(F455="", F455=0), "", IF(TODAY()&gt;F455, TODAY()-F455, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5134,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="N456">
-        <f>IF(I456="Completed",0, IF(TODAY()&gt;F456, TODAY()-F456, 0))</f>
+        <f>IF(I456="Completed","", IF(OR(F456="", F456=0), "", IF(TODAY()&gt;F456, TODAY()-F456, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5144,7 +5176,7 @@
         <v>0</v>
       </c>
       <c r="N457">
-        <f>IF(I457="Completed",0, IF(TODAY()&gt;F457, TODAY()-F457, 0))</f>
+        <f>IF(I457="Completed","", IF(OR(F457="", F457=0), "", IF(TODAY()&gt;F457, TODAY()-F457, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5154,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="N458">
-        <f>IF(I458="Completed",0, IF(TODAY()&gt;F458, TODAY()-F458, 0))</f>
+        <f>IF(I458="Completed","", IF(OR(F458="", F458=0), "", IF(TODAY()&gt;F458, TODAY()-F458, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5164,7 +5196,7 @@
         <v>0</v>
       </c>
       <c r="N459">
-        <f>IF(I459="Completed",0, IF(TODAY()&gt;F459, TODAY()-F459, 0))</f>
+        <f>IF(I459="Completed","", IF(OR(F459="", F459=0), "", IF(TODAY()&gt;F459, TODAY()-F459, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5174,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="N460">
-        <f>IF(I460="Completed",0, IF(TODAY()&gt;F460, TODAY()-F460, 0))</f>
+        <f>IF(I460="Completed","", IF(OR(F460="", F460=0), "", IF(TODAY()&gt;F460, TODAY()-F460, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5184,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="N461">
-        <f>IF(I461="Completed",0, IF(TODAY()&gt;F461, TODAY()-F461, 0))</f>
+        <f>IF(I461="Completed","", IF(OR(F461="", F461=0), "", IF(TODAY()&gt;F461, TODAY()-F461, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5194,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="N462">
-        <f>IF(I462="Completed",0, IF(TODAY()&gt;F462, TODAY()-F462, 0))</f>
+        <f>IF(I462="Completed","", IF(OR(F462="", F462=0), "", IF(TODAY()&gt;F462, TODAY()-F462, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5204,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="N463">
-        <f>IF(I463="Completed",0, IF(TODAY()&gt;F463, TODAY()-F463, 0))</f>
+        <f>IF(I463="Completed","", IF(OR(F463="", F463=0), "", IF(TODAY()&gt;F463, TODAY()-F463, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5214,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="N464">
-        <f>IF(I464="Completed",0, IF(TODAY()&gt;F464, TODAY()-F464, 0))</f>
+        <f>IF(I464="Completed","", IF(OR(F464="", F464=0), "", IF(TODAY()&gt;F464, TODAY()-F464, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5224,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="N465">
-        <f>IF(I465="Completed",0, IF(TODAY()&gt;F465, TODAY()-F465, 0))</f>
+        <f>IF(I465="Completed","", IF(OR(F465="", F465=0), "", IF(TODAY()&gt;F465, TODAY()-F465, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5234,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="N466">
-        <f>IF(I466="Completed",0, IF(TODAY()&gt;F466, TODAY()-F466, 0))</f>
+        <f>IF(I466="Completed","", IF(OR(F466="", F466=0), "", IF(TODAY()&gt;F466, TODAY()-F466, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5244,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="N467">
-        <f>IF(I467="Completed",0, IF(TODAY()&gt;F467, TODAY()-F467, 0))</f>
+        <f>IF(I467="Completed","", IF(OR(F467="", F467=0), "", IF(TODAY()&gt;F467, TODAY()-F467, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5254,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="N468">
-        <f>IF(I468="Completed",0, IF(TODAY()&gt;F468, TODAY()-F468, 0))</f>
+        <f>IF(I468="Completed","", IF(OR(F468="", F468=0), "", IF(TODAY()&gt;F468, TODAY()-F468, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5264,7 +5296,7 @@
         <v>0</v>
       </c>
       <c r="N469">
-        <f>IF(I469="Completed",0, IF(TODAY()&gt;F469, TODAY()-F469, 0))</f>
+        <f>IF(I469="Completed","", IF(OR(F469="", F469=0), "", IF(TODAY()&gt;F469, TODAY()-F469, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5274,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="N470">
-        <f>IF(I470="Completed",0, IF(TODAY()&gt;F470, TODAY()-F470, 0))</f>
+        <f>IF(I470="Completed","", IF(OR(F470="", F470=0), "", IF(TODAY()&gt;F470, TODAY()-F470, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5284,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="N471">
-        <f>IF(I471="Completed",0, IF(TODAY()&gt;F471, TODAY()-F471, 0))</f>
+        <f>IF(I471="Completed","", IF(OR(F471="", F471=0), "", IF(TODAY()&gt;F471, TODAY()-F471, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5294,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="N472">
-        <f>IF(I472="Completed",0, IF(TODAY()&gt;F472, TODAY()-F472, 0))</f>
+        <f>IF(I472="Completed","", IF(OR(F472="", F472=0), "", IF(TODAY()&gt;F472, TODAY()-F472, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5304,7 +5336,7 @@
         <v>0</v>
       </c>
       <c r="N473">
-        <f>IF(I473="Completed",0, IF(TODAY()&gt;F473, TODAY()-F473, 0))</f>
+        <f>IF(I473="Completed","", IF(OR(F473="", F473=0), "", IF(TODAY()&gt;F473, TODAY()-F473, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5314,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="N474">
-        <f>IF(I474="Completed",0, IF(TODAY()&gt;F474, TODAY()-F474, 0))</f>
+        <f>IF(I474="Completed","", IF(OR(F474="", F474=0), "", IF(TODAY()&gt;F474, TODAY()-F474, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5324,7 +5356,7 @@
         <v>0</v>
       </c>
       <c r="N475">
-        <f>IF(I475="Completed",0, IF(TODAY()&gt;F475, TODAY()-F475, 0))</f>
+        <f>IF(I475="Completed","", IF(OR(F475="", F475=0), "", IF(TODAY()&gt;F475, TODAY()-F475, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5334,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="N476">
-        <f>IF(I476="Completed",0, IF(TODAY()&gt;F476, TODAY()-F476, 0))</f>
+        <f>IF(I476="Completed","", IF(OR(F476="", F476=0), "", IF(TODAY()&gt;F476, TODAY()-F476, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5344,7 +5376,7 @@
         <v>0</v>
       </c>
       <c r="N477">
-        <f>IF(I477="Completed",0, IF(TODAY()&gt;F477, TODAY()-F477, 0))</f>
+        <f>IF(I477="Completed","", IF(OR(F477="", F477=0), "", IF(TODAY()&gt;F477, TODAY()-F477, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5354,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="N478">
-        <f>IF(I478="Completed",0, IF(TODAY()&gt;F478, TODAY()-F478, 0))</f>
+        <f>IF(I478="Completed","", IF(OR(F478="", F478=0), "", IF(TODAY()&gt;F478, TODAY()-F478, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5364,7 +5396,7 @@
         <v>0</v>
       </c>
       <c r="N479">
-        <f>IF(I479="Completed",0, IF(TODAY()&gt;F479, TODAY()-F479, 0))</f>
+        <f>IF(I479="Completed","", IF(OR(F479="", F479=0), "", IF(TODAY()&gt;F479, TODAY()-F479, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5374,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="N480">
-        <f>IF(I480="Completed",0, IF(TODAY()&gt;F480, TODAY()-F480, 0))</f>
+        <f>IF(I480="Completed","", IF(OR(F480="", F480=0), "", IF(TODAY()&gt;F480, TODAY()-F480, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5384,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="N481">
-        <f>IF(I481="Completed",0, IF(TODAY()&gt;F481, TODAY()-F481, 0))</f>
+        <f>IF(I481="Completed","", IF(OR(F481="", F481=0), "", IF(TODAY()&gt;F481, TODAY()-F481, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5394,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="N482">
-        <f>IF(I482="Completed",0, IF(TODAY()&gt;F482, TODAY()-F482, 0))</f>
+        <f>IF(I482="Completed","", IF(OR(F482="", F482=0), "", IF(TODAY()&gt;F482, TODAY()-F482, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5404,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="N483">
-        <f>IF(I483="Completed",0, IF(TODAY()&gt;F483, TODAY()-F483, 0))</f>
+        <f>IF(I483="Completed","", IF(OR(F483="", F483=0), "", IF(TODAY()&gt;F483, TODAY()-F483, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5414,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="N484">
-        <f>IF(I484="Completed",0, IF(TODAY()&gt;F484, TODAY()-F484, 0))</f>
+        <f>IF(I484="Completed","", IF(OR(F484="", F484=0), "", IF(TODAY()&gt;F484, TODAY()-F484, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5424,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="N485">
-        <f>IF(I485="Completed",0, IF(TODAY()&gt;F485, TODAY()-F485, 0))</f>
+        <f>IF(I485="Completed","", IF(OR(F485="", F485=0), "", IF(TODAY()&gt;F485, TODAY()-F485, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5434,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="N486">
-        <f>IF(I486="Completed",0, IF(TODAY()&gt;F486, TODAY()-F486, 0))</f>
+        <f>IF(I486="Completed","", IF(OR(F486="", F486=0), "", IF(TODAY()&gt;F486, TODAY()-F486, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5444,7 +5476,7 @@
         <v>0</v>
       </c>
       <c r="N487">
-        <f>IF(I487="Completed",0, IF(TODAY()&gt;F487, TODAY()-F487, 0))</f>
+        <f>IF(I487="Completed","", IF(OR(F487="", F487=0), "", IF(TODAY()&gt;F487, TODAY()-F487, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5454,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="N488">
-        <f>IF(I488="Completed",0, IF(TODAY()&gt;F488, TODAY()-F488, 0))</f>
+        <f>IF(I488="Completed","", IF(OR(F488="", F488=0), "", IF(TODAY()&gt;F488, TODAY()-F488, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5464,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="N489">
-        <f>IF(I489="Completed",0, IF(TODAY()&gt;F489, TODAY()-F489, 0))</f>
+        <f>IF(I489="Completed","", IF(OR(F489="", F489=0), "", IF(TODAY()&gt;F489, TODAY()-F489, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5474,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="N490">
-        <f>IF(I490="Completed",0, IF(TODAY()&gt;F490, TODAY()-F490, 0))</f>
+        <f>IF(I490="Completed","", IF(OR(F490="", F490=0), "", IF(TODAY()&gt;F490, TODAY()-F490, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5484,7 +5516,7 @@
         <v>0</v>
       </c>
       <c r="N491">
-        <f>IF(I491="Completed",0, IF(TODAY()&gt;F491, TODAY()-F491, 0))</f>
+        <f>IF(I491="Completed","", IF(OR(F491="", F491=0), "", IF(TODAY()&gt;F491, TODAY()-F491, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5494,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="N492">
-        <f>IF(I492="Completed",0, IF(TODAY()&gt;F492, TODAY()-F492, 0))</f>
+        <f>IF(I492="Completed","", IF(OR(F492="", F492=0), "", IF(TODAY()&gt;F492, TODAY()-F492, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5504,7 +5536,7 @@
         <v>0</v>
       </c>
       <c r="N493">
-        <f>IF(I493="Completed",0, IF(TODAY()&gt;F493, TODAY()-F493, 0))</f>
+        <f>IF(I493="Completed","", IF(OR(F493="", F493=0), "", IF(TODAY()&gt;F493, TODAY()-F493, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5514,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="N494">
-        <f>IF(I494="Completed",0, IF(TODAY()&gt;F494, TODAY()-F494, 0))</f>
+        <f>IF(I494="Completed","", IF(OR(F494="", F494=0), "", IF(TODAY()&gt;F494, TODAY()-F494, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5524,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="N495">
-        <f>IF(I495="Completed",0, IF(TODAY()&gt;F495, TODAY()-F495, 0))</f>
+        <f>IF(I495="Completed","", IF(OR(F495="", F495=0), "", IF(TODAY()&gt;F495, TODAY()-F495, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5534,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="N496">
-        <f>IF(I496="Completed",0, IF(TODAY()&gt;F496, TODAY()-F496, 0))</f>
+        <f>IF(I496="Completed","", IF(OR(F496="", F496=0), "", IF(TODAY()&gt;F496, TODAY()-F496, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5544,7 +5576,7 @@
         <v>0</v>
       </c>
       <c r="N497">
-        <f>IF(I497="Completed",0, IF(TODAY()&gt;F497, TODAY()-F497, 0))</f>
+        <f>IF(I497="Completed","", IF(OR(F497="", F497=0), "", IF(TODAY()&gt;F497, TODAY()-F497, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5554,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="N498">
-        <f>IF(I498="Completed",0, IF(TODAY()&gt;F498, TODAY()-F498, 0))</f>
+        <f>IF(I498="Completed","", IF(OR(F498="", F498=0), "", IF(TODAY()&gt;F498, TODAY()-F498, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5564,7 +5596,7 @@
         <v>0</v>
       </c>
       <c r="N499">
-        <f>IF(I499="Completed",0, IF(TODAY()&gt;F499, TODAY()-F499, 0))</f>
+        <f>IF(I499="Completed","", IF(OR(F499="", F499=0), "", IF(TODAY()&gt;F499, TODAY()-F499, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5574,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="N500">
-        <f>IF(I500="Completed",0, IF(TODAY()&gt;F500, TODAY()-F500, 0))</f>
+        <f>IF(I500="Completed","", IF(OR(F500="", F500=0), "", IF(TODAY()&gt;F500, TODAY()-F500, "")))</f>
         <v>0</v>
       </c>
     </row>
@@ -5593,15 +5625,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I500">
       <formula1>status_list</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C500">
+      <formula1>owner_list</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K500">
       <formula1>yesno_list</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L500">
       <formula1>impact_list</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M500">
+      <formula1>resolver_list</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5659,6 +5697,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C500">
+      <formula1>owner_list</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5704,12 +5747,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F500">
       <formula1>impact_list</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H500">
       <formula1>solve_status_list</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I500">
+      <formula1>resolver_list</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5718,13 +5764,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -5737,8 +5783,14 @@
       <c r="D1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -5751,8 +5803,14 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -5762,15 +5820,73 @@
       <c r="D3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -5788,52 +5904,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
